--- a/doc/avancement.xlsx
+++ b/doc/avancement.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="5100" tabRatio="676" activeTab="5"/>
+    <workbookView xWindow="4815" yWindow="1770" windowWidth="9885" windowHeight="5100" tabRatio="657" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Avancement" sheetId="1" r:id="rId1"/>
     <sheet name="corrections_evols" sheetId="2" r:id="rId2"/>
     <sheet name="tarification_adoptée" sheetId="4" r:id="rId3"/>
     <sheet name="quantification du taf" sheetId="5" r:id="rId4"/>
-    <sheet name="dependances" sheetId="7" r:id="rId5"/>
+    <sheet name="dependances" sheetId="9" r:id="rId5"/>
     <sheet name="liste des fonctionalités" sheetId="8" r:id="rId6"/>
   </sheets>
   <definedNames>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="567">
   <si>
     <t>Tableau récapitulatif</t>
   </si>
@@ -434,14 +434,6 @@
   </si>
   <si>
     <t>Ajout des procédures sur la page d'accueil</t>
-  </si>
-  <si>
-    <t>Ajout des documents:
--AS_Nexter_presentation_galette_indB.pptx
--procedure_inscription_AS_Nexter_2014_B.pdf
--procedure_responsable_2014_B.pdf
-dans le footer situé dans le fichier footer.tpl dans galette\templates\default
-Les fichiers sont dans {$subscription_dir}download/</t>
   </si>
   <si>
     <t>Francis</t>
@@ -696,23 +688,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">03/09/14: prise en compte en V0.3 avec filtre age&lt;1ans
-modification du fichier </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Adherent.php</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>03/09/14: prise en compte dans la V0.3/</t>
     </r>
     <r>
@@ -1217,16 +1192,6 @@
 2-     Lorsqu’il y a + de 10 adhérants, il y a des personnes qui ne sont pas prises en compte et parfois, elles sont en milieu de liste</t>
   </si>
   <si>
-    <t>Détails du pb: la cause racine provient des marges si elles sont à 0, on a bien tous les adhérents (testé avec les adhérents AS) 
-si elles sont de 15;18;18;28 ça ne fonctionne pas.
-Il faut que le paramètre "Espacement vertical " soit de 10mm max (testé avec les autres marges à 0)
-La conf retenue par Fabien le 31/07/15: 
-MV : 7
-MH : 15
-EV : 18
-EH : 23</t>
-  </si>
-  <si>
     <t>V1.1</t>
   </si>
   <si>
@@ -1258,57 +1223,6 @@
 ·         à chaque membre de section (pour des messages spécifiques.
 A cela, il faut pouvoir joindre des pièces jointes (ou un lien) .
 Il faut quelque chose de simple qui provienne  d’une source sure (adresse AS nexter) sinon les antivirus vont rejeter les messages.</t>
-  </si>
-  <si>
-    <r>
-      <t>De : Marc Labé [mailto:marclabe91@gmail.com] 
-Envoyé : mardi 22 décembre 2015 15:19
-À : GOUTTE Fabien
-Objet : Re: galette
-Bonjour Fabien
-Bonjour Amaury
-Je comprends les difficultés liées à quelques bugs, rencontrées sur le site de Galette. Je pense qu'on atteint les limites fonctionnelles de Galette qui ne gère pas le timing des départs de messages, ni les adresses en erreur, ni les désincriptions.
-Aujourd'hui nous avons 470 adhérents mais j'ai compté plus de 700 personnes, si on veut faire un mail à toutes les personnes ayant été inscrites sur les 2 dernières années en septembre pour leur annoncer l'ouverture des inscriptions, il faut bien procéder par paquets et planifier sur plusieurs jours.
-Aujourd'hui OVH nous limite à</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 500 par jour mais également à 200 par heure </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>de mémoire. Ces valeurs ont tendance à changer au gré du vent, mais jamais à la hausse. C'est pourquoi un outil de mailing me semble de plus en plus indispensable afin d'éviter de consacrer trop de temps (avec parfois risque d'erreur).
-J'ai commencé à travailler sur le sujet, l'outil est sur le site AS Nexter, j'ai déjà passé pas mal de temps à le configurer (traduction des messages). Il faut faire une passerelle pour transférer les données de Galette vers phpList, je verrai cela avec Amaury qui connait bien la base de données Galette. Il faudra aussi recenser les listes qui seront utiles : tous ceux ayant adhéré au moins une fois, les adhérents AS à jour, les adhérents Plongée ... En revanche pour envoyer un mail à moins de 50 personnes, Galette restera sans doute toujours plus convivial.
-Cette solution prend un peu de temps à mettre en œuvre, je tâcherai de vous présenter quelque chose d'ici le retour des vacances de Noël
-Amicalement
-De : Marc Labé [mailto:marclabe91@gmail.com] 
-Envoyé : mardi 22 décembre 2015 16:24
-À : GOUTTE Fabien; FROMENT Amaury
-Objet : Re: galette
-Fabien
-Cela correspond bien aux besoins que j'avais identifiés.
-Les mails sont envoyés par php, donc ils sont envoyés de la même façon que par Galette avec la même adresse d'expéditeur. C'est OVH qui prend en charge la distribution.
-Les adresses erronées, si elles sont trop nombreuses, bloquent le mécanisme d'envoi, exactement de la même façon que Galette. Il faut alors une intervention manuelle pour débloquer (chez OVH).
-En revanche, l'outil identifie les adresses invalides pour les mettre de côté. L'outil n'envoie qu'un seul mail par personne même si la liste contient des doublons.
-Le logiciel est peut-être plus permissif que Galette pour les pièces jointes mais de toutes façons il vaut mieux les éviter et faire un lien vers notre site AS Nexter.
-Les mails peuvent être écrits soit en mode texte, soit en mode Html (à privilégier car c'est le seul mode permettant le rattachement d'images ...) , mais ils sont insérés dans un modèle qui rajoute entête et pied de page. Dans le pied de page, il y a des liens pour que les utilisateurs puissent se désinscrire de leur abonnement. Il vaut mieux que quelqu'un puisse se désinscrire plutôt qu'il mette le message en spam (ce qui nous porte préjudice).
-L'envers de la médaille, c'est qu'il te faudra quelques explications pour démarrer, mais c'est encore dans mes cordes.
-Marc
-Voir le doc Guide_emailing_asnexter_indA.docx</t>
-    </r>
   </si>
   <si>
     <t>supprimer les logs galettes pour gagner de la place</t>
@@ -1654,79 +1568,6 @@
     <t>send_files_standalone.php</t>
   </si>
   <si>
-    <t>via include/tarifs.php. A part des modifs sur Zend rien ne change dans la V0.8.2.3</t>
-  </si>
-  <si>
-    <t>A part des modifs sur Zend rien ne change dans la V0.8.2.3</t>
-  </si>
-  <si>
-    <t>Changements non significatifs dans la V0.8.2.3</t>
-  </si>
-  <si>
-    <t>Les param E/S ne changent pas dans Galette 0.8.2.3</t>
-  </si>
-  <si>
-    <t>Changements non significatifs dans la V0.8.2.3 à part Zend</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Via la class activivity. Remarque il existe des noms identiques entre la class activity et la class groups (getList)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Changements non significatifs dans la V0.8.2.3 à part Zend</t>
-    </r>
-  </si>
-  <si>
-    <t>changements non significatifs en V0.8.2.3. Pas même Zend</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Attention, fonction changée en V0.8.2.3, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2 paramètres d'E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> et ZendDBRowset en sortie</t>
-    </r>
-  </si>
-  <si>
-    <t>inchangé en V0.8.2.3</t>
-  </si>
-  <si>
-    <t>Changements non significatifs dans la V0.8.2.4</t>
-  </si>
-  <si>
     <t>is_doublon($nom, $prenom, $ddn)</t>
   </si>
   <si>
@@ -1734,10 +1575,6 @@
   </si>
   <si>
     <t>evol #38 (interdire age&lt;1ans) et #18 (interdire les dates du type: 14/07/0014)</t>
-  </si>
-  <si>
-    <t>Evol #55 ajout d'une fonction PUBLIC pour que le plugin subscription puisse faire un update du champ date_modif_adh.
-A part des modifs sur Zend rien ne change dans la V0.8.2.3</t>
   </si>
   <si>
     <t>Evol #1 Modification du fichier natif de galette pour la détection du navigateur
@@ -1748,15 +1585,6 @@
 Fichier implicite</t>
   </si>
   <si>
-    <t>navigator_detection.php</t>
-  </si>
-  <si>
-    <t>Evol #1 ajout de la fonction de détection du navigateur</t>
-  </si>
-  <si>
-    <t>index.php et index.tpl</t>
-  </si>
-  <si>
     <t>modification du fichier  pour correction du bug #27 sur le renommage des groupes sans perdre la parenté</t>
   </si>
   <si>
@@ -1783,41 +1611,6 @@
   </si>
   <si>
     <t>Dépendance implicite</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Date de la vérification 05/11/16
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Liste les dépendances avec du plugin subscription avec Galette</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dans tous les fichiers du plugin, j'ai "require once _config.inc.php" et "GALETTE_BASE_PATH . 'includes/galette.inc.php';"</t>
-    </r>
   </si>
   <si>
     <t>fonction créé par Amaury evol #55</t>
@@ -1947,9 +1740,6 @@
     <t>un responsable de section peut controler si l'adhérent a mis une photo</t>
   </si>
   <si>
-    <t>management_subs2.php, photo= oui</t>
-  </si>
-  <si>
     <t>un membre du bureau ou un admin galette peut changer l'appartenance d'un adhérent</t>
   </si>
   <si>
@@ -1985,11 +1775,6 @@
     <t>un membre du bureau peut modifier tous les champs d'un groupe/d'une section</t>
   </si>
   <si>
-    <t>uniquement le lieu, le jour, les reseignements et si le groupe est complet ou non.
-Il ne peut pas modifier les tarifs ni qui est responsable du groupe, ni le champ validation auto (invisible).
-Il peut ajouter des fichiers  au groupe (règlements intérieur…)</t>
-  </si>
-  <si>
     <t>un adhérent peut s'abonner à un ou plusieurs groupes</t>
   </si>
   <si>
@@ -1997,13 +1782,6 @@
   </si>
   <si>
     <t>seul un membre du bureau ou un admin peut le faire</t>
-  </si>
-  <si>
-    <t>26/10/15: ca affecte uniquement la "section" AS car elle est parente des autres, ca nous affiche effectivement 1183 lignes alors qu'il n'y a que 522 adhérents.
-Solution palliative: si l'objectif est d'envoyer un mail, il n'y a pas de problème, le mail sera envoyé 1 fois aux 522 adhérents.
-Si l'objectif est de sortir une liste, tu peux voir dans navigation/gestion des groupes/ adhérents et faire un export en pdf (tout en bas) ou bien suivre la procédure d'export excel.
-Solution définitive: modifier le code source galette mais trop complexe à faire.
-Remonté à Johan par le ticket #1003</t>
   </si>
   <si>
     <t>installation de galette et du plugin</t>
@@ -2016,44 +1794,9 @@
     <t>Remplasser le logo pixélisé de l'AS sur la page d'accueil</t>
   </si>
   <si>
-    <t>Liste des dépendances avec Galette
-git diff --name-status 0.7.8..galette_amaury --diff-filter A
-M       galette/get_export.php #evol 52 pas long
-M       galette/index.php  #evol include detec navigator
-M       galette/lang/en_US.po
-M       galette/lang/fr_FR.utf8.po
-M       galette/lang/fr_FR.utf8/LC_MESSAGES/galette.mo
-M       galette/lang/lang_english.php
-M       galette/lang/lang_french.php
-M       galette/lang/messages.po
-M       galette/lib/Galette/Entity/Adherent.php #55 evol function updateModificationDate(), bug 14/07/0014 + bug #38
-M       galette/picture.php #34 bug
-M       galette/self_adherent.php evol #43 interdiction doubons/homonymes
-M       galette/templates/default/footer.tpl
-M       galette/templates/default/group.tpl #27 bug
-M       galette/templates/default/index.tpl #evol navigateur
-A       galette/lang/fr_FR.utf8.mo
-A       galette/templates/default/index_0.tpl
-A       galette/templates/default/index_maintenance.tpl
-A       galette/templates/default/public_page_0.tpl
-A       galette/templates/default/public_page_maintenance.tpl
-A       galette/templates/default/voir_adherent_read_only.tpl
-A       galette/voir_adherent_read_only.php
-A       galette/carte_adherent_0.php</t>
-  </si>
-  <si>
     <t>Liste des dépendances avec Galette</t>
   </si>
   <si>
-    <t>git diff --name-status 0.7.8..galette_amaury --diff-filter A</t>
-  </si>
-  <si>
-    <t>M       galette/get_export.php #evol 52 pas long</t>
-  </si>
-  <si>
-    <t>M       galette/index.php  #evol include detec navigator</t>
-  </si>
-  <si>
     <t>M       galette/lang/en_US.po</t>
   </si>
   <si>
@@ -2072,58 +1815,13 @@
     <t>M       galette/lang/messages.po</t>
   </si>
   <si>
-    <t>M       galette/lib/Galette/Entity/Adherent.php #55 evol function updateModificationDate(), bug 14/07/0014 + bug #38</t>
-  </si>
-  <si>
-    <t>M       galette/picture.php #34 bug</t>
-  </si>
-  <si>
-    <t>M       galette/self_adherent.php evol #43 interdiction doubons/homonymes</t>
-  </si>
-  <si>
     <t>M       galette/templates/default/footer.tpl</t>
   </si>
   <si>
-    <t>M       galette/templates/default/group.tpl #27 bug</t>
-  </si>
-  <si>
-    <t>M       galette/templates/default/index.tpl #evol navigateur</t>
-  </si>
-  <si>
-    <t>A       galette/lang/fr_FR.utf8.mo</t>
-  </si>
-  <si>
-    <t>A       galette/templates/default/index_0.tpl</t>
-  </si>
-  <si>
-    <t>A       galette/templates/default/index_maintenance.tpl</t>
-  </si>
-  <si>
-    <t>A       galette/templates/default/public_page_0.tpl</t>
-  </si>
-  <si>
-    <t>A       galette/templates/default/public_page_maintenance.tpl</t>
-  </si>
-  <si>
     <t>A       galette/templates/default/voir_adherent_read_only.tpl</t>
   </si>
   <si>
     <t>A       galette/voir_adherent_read_only.php</t>
-  </si>
-  <si>
-    <t>A       galette/carte_adherent_0.php</t>
-  </si>
-  <si>
-    <t>Galette_amaury_8.3.x</t>
-  </si>
-  <si>
-    <t>fait</t>
-  </si>
-  <si>
-    <t>Fait</t>
-  </si>
-  <si>
-    <t>vérifié</t>
   </si>
   <si>
     <t>Sur les filtres de la page management_subs.php, (0.7.9 avec plugin V1.4) le filtre tout n'affiche aucune ligne si sélectionné après un autre.</t>
@@ -2155,9 +1853,6 @@
     <t>Nettoyage du répertoire upload/file et bdd</t>
   </si>
   <si>
-    <t>Lorsqu'un membre du bureau supprime un fichier quelconque via le bouton supprimer, ceci lance la fonction de nettoyage file/clean_file()</t>
-  </si>
-  <si>
     <t>Nettoyé dans le commit 02657aa</t>
   </si>
   <si>
@@ -2177,9 +1872,6 @@
   </si>
   <si>
     <t>doit se faire par la procédure officielle du site galette (click bouton)</t>
-  </si>
-  <si>
-    <t>un responsable de section doit pouvoir mettre à jour toutes les autres infos de sa section/groupe</t>
   </si>
   <si>
     <t>corrigé par le commit 4ff72e4</t>
@@ -2204,26 +1896,12 @@
 Johan: Dores et déjà corrigé pour la prochaine version, voir le 753954fa</t>
   </si>
   <si>
-    <t>Il existe déjà un plugin paypal pour galette permettant de payer les "cotisations". L'adhérent peut lui-même ajuster le montant avant payement.
-Tester la plateforme ipreza</t>
-  </si>
-  <si>
-    <t>Mon wamp server 2.5 utilise: php 5.5.12 (on n'est pas si en retard que ça. Je n'ai pas remarqué d'imcompatibilité).
-Pour info pour Galette V0.8.3 il faut minimum php 5.4.
-Installation du dernier wamp en date (Wampserver 3.0.6 32 bit x86 – Apache 2.4.23 – PHP 5.6.25/7.0.10 – MySQL 5.7.14 – PhpMyAdmin 4.6.4 – Adminer 4.2.5 – PhpSysInfo 3.2.5)
-Voir journal du 25/04/17.
-Le serveur asnexter est en php 5.4 le 30/04/17</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>nom de la fonctionalité utilisées par l'Asnexter</t>
   </si>
   <si>
-    <t>Mise à disposition de Galette sur serveur web</t>
-  </si>
-  <si>
     <t>Ce script sauvegarde toute la BDD tous les jours +  tous les lundi + tous les 1er du mois + tous les 1er juillet de l'année</t>
   </si>
   <si>
@@ -2242,41 +1920,10 @@
     <t>suite de tests basiques</t>
   </si>
   <si>
-    <t>Résultat 
-(galette 2744cfe subscription 29a29ef)</t>
-  </si>
-  <si>
     <t>un adhérent doit pouvoir récupérer son mot de passe</t>
   </si>
   <si>
     <t>nécessite d'activer la fonction mail dans préférence/courriel/Méthode d'envoi des courriels</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">26/09/14: prise en compte en V0.4 avec la modification des fichiers </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Adherent.php et self_adherent.php
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01/05/17: essais d'intégration dans la class adherent/check mais pose pb lorsqu'un membre du bureau ou l'adherent veut modifier ses propres infos. C'est pour ça que la fonction is_doublon n'est pas appelée par ajouter_adherent.php</t>
-    </r>
   </si>
   <si>
     <t>Dans la version V1.4 29a29ef du plugin, le statut de l'abonnement n'est pas bien affiché sur les activités liées.
@@ -2291,90 +1938,10 @@
     <t>un membre du bureau peut modifier tous les champs (sauf admin galette réservé au président et admin) d'un adhérent</t>
   </si>
   <si>
-    <t>il peut modifier les tarifs, et tous les renseignements, même le champ validation auto.
-Même si il n'est pas responsable de ce groupe.
-si le champ complet est à oui, il n'est plus possible de s'abonner à ce groupe.</t>
-  </si>
-  <si>
     <t>a1138e1 Fix du bug #68 concernant management_subs2.tpl introduit avec le 7cd5249</t>
   </si>
   <si>
-    <r>
-      <t>Le but est que le responsable de section puisse modifier/contrôler ses adhérents avant de valider leur abonnement. (quand on a plus de droits comme pour moi et le bureau on n'a pas ces pb. Je connais la cause, je vais étudier la solution).
-03/09/14 prise en compte V0.3. Modifications des fichiers:
--</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>picture.php</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour afficher la photo même si l'adh n'est pas dans le groupe
--</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>voir_adherent_read_only.php et tpl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour afficher un profil et pouvoir le modifier même s'il n'est pas validé
--</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>management_subs2.tpl</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pour rediriger vers voir_adherent.php si on a validé l'adh et vers voir_adherent_read_only.php sinon</t>
-    </r>
-  </si>
-  <si>
     <t>un responsable de section peut modifier le profil d'un adhérent (de son groupe)</t>
-  </si>
-  <si>
-    <t>quelque soit le statut de l'abonnement, un responsable de section (sans droit d'admin galette) peut modifier le profil de ses adhérents</t>
   </si>
   <si>
     <t>un responsable de section peut supprimer un group (accès au bouton supression en cascade)</t>
@@ -2382,9 +1949,6 @@
   <si>
     <t>Condition d'accès au menu de gauche et au menu d'accueil restraint aux reponsable du bureau et à l'admin
 commit 3a256fe</t>
-  </si>
-  <si>
-    <t>A l'exeption du champ autovalidation (visible uniquement par le bureau) et des tarifs</t>
   </si>
   <si>
     <r>
@@ -2466,6 +2030,521 @@
   <si>
     <t>Modifier ce fichier pour soit faire du dev en local soit mettre le mode PROD pour le serveur (ou le supprimer)</t>
   </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>le serveur php de l'AS était en V7.1, je l'ai légèrement rétrogradé en v7.0 
+(ce qui correspond à ma configuration avec laquelle j'ai validé Galette)
+Page concernée: subs_confirmation.php, 
+message d'erreur en mode de dev: fatal error cannot use $this as parameter l63</t>
+  </si>
+  <si>
+    <t>Mon wamp server 2.5 utilise: php 5.5.12 (on n'est pas si en retard que ça. Je n'ai pas remarqué d'imcompatibilité).
+Pour info pour Galette V0.8.3 il faut minimum php 5.4.
+Installation du dernier wamp en date (Wampserver 3.0.6 32 bit x86 – Apache 2.4.23 – PHP 5.6.25/7.0.10 – MySQL 5.7.14 – PhpMyAdmin 4.6.4 – Adminer 4.2.5 – PhpSysInfo 3.2.5)
+Voir journal du 25/04/17.
+Le serveur asnexter est en php 5.4 le 30/04/17
+Le serveur asnexter est en php 7.0 le 7/5/17 cf journal</t>
+  </si>
+  <si>
+    <t>Galette ne gère plus les centimes (bien affichés mais pas enregistrés en base)</t>
+  </si>
+  <si>
+    <t>Suppression du group musculation et de ses abonnements.
+Je viens de voir les logs de galette,
+le groupe a bien été supprimé le 22/08/17 à 13h16 :
+ 178.33.103.143 - 2017-08-22 13:16:44 - 7 - Executing query: DELETE FROM `galette_groups` WHERE id_group = 16
+ 178.33.103.15 - 2017-08-22 13:17:09 - 7 - Executing query: DELETE FROM `galette_groups_members` WHERE id_group = 16
+ 178.33.103.15 - 2017-08-22 13:17:09 - 7 - Executing query: DELETE FROM `galette_groups_managers` WHERE id_group = 16
+ 178.33.103.15 - 2017-08-22 13:17:09 - 7 - Executing query: DELETE FROM `galette_groups` WHERE id_group = 16</t>
+  </si>
+  <si>
+    <t>Il existe déjà un plugin paypal pour galette permettant de payer les "cotisations". L'adhérent peut lui-même ajuster le montant avant payement.
+Tester la plateforme ipreza
+Voir AS_Nexter_presentation_plugin_paypal_indA2.pptx</t>
+  </si>
+  <si>
+    <t>Ajouter une étape de confirmation pour la supression en cascade d'un groupe + avertir Johan (Souhaits #1044).
+Fait dans le commit 4af717
+Solution: insertion SQL, impact: perte des fichiers de la muscu (voir mail du 23/08/17 16h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certains abonnement pourrissent la bbd et ne sont pas nettoyé:
+id_abn id_adh date_demande total_estimme   message_abn
+823        619         11/03/2015         NULL                       NULL
+1154      718         12/09/2015         NULL                       NULL
+1237      445         29/09/2015         NULL                       NULL
+759        153         17/11/2014         NULL                       NULL
+2098          9          25/07/2017         0.00 
+1865     928           28/09/2016        0.00 
+1428      488          24/03/2016        0.00                         tournoi badmington
+1429      488          24/03/2016        0.00                         tournoi badmington
+</t>
+  </si>
+  <si>
+    <t>Nettoyage manuel de la base de donnée le 23/08/17.
+Un reset de la saison ne nettoye pas ces abonnements (dépourvus de suivi "followup")</t>
+  </si>
+  <si>
+    <t>il peut modifier les tarifs (vérifier les centimes), et tous les renseignements, même le champ validation auto.
+Même si il n'est pas responsable de ce groupe.
+si le champ complet est à oui, il n'est plus possible de s'abonner à ce groupe.</t>
+  </si>
+  <si>
+    <t>Si un membre du staff efface un fichier, il peut potentielement effacer un autre fichier en cours d'upload
+Voir class File/clean_file() dans le cas "si le fichier n'est pas dans la bdd mais est présent dans le répertoire"=un fichier en cours d'upload</t>
+  </si>
+  <si>
+    <t>Impossible de télécharger les cartes de membres (pdf) depuis un pc nexter.
+PLA: Lorsque je clique en phase 4, le pdf en bas de la page me note Echec erreur-réseau.
+Cela marchait bien l’an dernier.
+Fabien: J’ai aussi le même problème et j’utilise Chrome.</t>
+  </si>
+  <si>
+    <t>06/09/17: En analysant un fichier téléchargé depuis nexter et un fichier téléchargé depuis chez moi j'ai remarqué que le fichier nexter n'était pas fini, (même si chrome a marqué téléchargement terminé). Il manque toute la fin du fichier (description xml et trailer).
+je confirme qu'il s'agit effectivement d'un pb indépendant de galette. (la fin du fichier n'est pas téléchargé, même si par moment le navigateur annonce la fin de téléchargement). Je pense que c'est l'antivirus de nexter qui est un peu trop parano.
+Essayez avec votre téléphone, vous verrez. 
+malheureusement, je n'ai pas d'autres palliatifs à vous proposer
+Pour l'instant, ca n'a pas l'air d'impacter les autres fichiers (export des abonnements et des membres au format csv), fichiers des groupes...</t>
+  </si>
+  <si>
+    <t>vérifier que la photo est bien présente</t>
+  </si>
+  <si>
+    <t>vérifier que M. ou Mme est bien rempli (j'ai corrigé 3 profils sur les 4, pour le dernier, le prénom ne me permet pas de définir le sexe)</t>
+  </si>
+  <si>
+    <t>bug #977 déjà remonté mais non pris en compte pour le moment</t>
+  </si>
+  <si>
+    <t>J'ai une nouvelle idée pour Galette : as-tu la possibilité de modifier les menus sur la gauche de l'écran ? Est-il possible de mettre sous forme de menu les différentes sections (comme sous Joomla) et ainsi à partir du menu, de n'afficher (pour les responsables de sections) que les adhésions pour une section donnée. Cela permettrait de rendre l'affichage plus rapide.</t>
+  </si>
+  <si>
+    <t>oui et non, l'affichage des sections est conditionnée par le statut du profil (un membre du bureau verra toutes les sections, contrairement à un simple responsable de section qui ne verra que la sienne (avec un affichage du coup plus rapide)). Du coup pour ton cas, si je mets les sections dans le menu de gauche, il sera énorme (mais tu gagnerais un click). De plus, ceci ne ferait pas gagner en rapidité sur l'affichage de la page (le temps actuel le plus défavorable est &lt;10s. de chez moi pour qqn qui voit toutes les sections). Pour optimiser ce temps, il faudrait que je modifie les requêtes avec un risque de régression non négligeable. Je le mets dans ma roadmap en piste de réflexion.</t>
+  </si>
+  <si>
+    <t>Lié au bug #1105 Détails du pb: la cause racine provient des marges si elles sont à 0, on a bien tous les adhérents (testé avec les adhérents AS) 
+si elles sont de 15;18;18;28 ça ne fonctionne pas.
+Il faut que le paramètre "Espacement vertical " soit de 10mm max (testé avec les autres marges à 0)
+La conf retenue par Fabien le 31/07/15: 
+MV : 7
+MH : 15
+EV : 18
+EH : 23</t>
+  </si>
+  <si>
+    <t>Même si le groupe Parent est complet, il est toujours coché par défaut et il est alors possible de s'inscrire</t>
+  </si>
+  <si>
+    <t>uniquement le lieu, le jour, les reseignements et si le groupe est complet ou non.
+Il ne peut pas modifier les tarifs ni qui est responsable du groupe, ni le champ validation auto (invisible).
+Il peut ajouter des fichiers  au groupe (règlements intérieur…). Formulaire ou simple info</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Date de la vérification 03/11/17
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Liste les dépendances avec du plugin subscription avec Galette</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dans tous les fichiers du plugin, j'ai "require once _config.inc.php" et "GALETTE_BASE_PATH . 'includes/galette.inc.php';"</t>
+    </r>
+  </si>
+  <si>
+    <t>git diff --name-status 0.8.3.3..galette_amaury2_dev --diff-filter M</t>
+  </si>
+  <si>
+    <t>M       galette/includes/galette.inc.php</t>
+  </si>
+  <si>
+    <t>M       galette/install/scripts/mysql.sql</t>
+  </si>
+  <si>
+    <t>M       galette/lang/en_US/LC_MESSAGES/galette.mo</t>
+  </si>
+  <si>
+    <t>M       galette/lib/Galette/Entity/Adherent.php</t>
+  </si>
+  <si>
+    <t>M       galette/picture.php</t>
+  </si>
+  <si>
+    <t>M       galette/self_adherent.php</t>
+  </si>
+  <si>
+    <t>M       galette/templates/default/desktop.tpl</t>
+  </si>
+  <si>
+    <t>M       galette/templates/default/galette.css</t>
+  </si>
+  <si>
+    <t>M       galette/templates/default/group.tpl</t>
+  </si>
+  <si>
+    <t>M       galette/templates/default/page.tpl</t>
+  </si>
+  <si>
+    <t>#43 interdiction doubons/homonymes</t>
+  </si>
+  <si>
+    <t>Précise juste la version x.x-amaury</t>
+  </si>
+  <si>
+    <t>Evol#69 évite qu'un responsable de groupe puisse modifier ou supprimer son propre groupe</t>
+  </si>
+  <si>
+    <t>#1045 sur le responsive design des fiches adhérents</t>
+  </si>
+  <si>
+    <t>#1006 uniformisation des types d'engine dans le fichiermysql.sql</t>
+  </si>
+  <si>
+    <t>#34 bug, pouvoir afficher un profil d'un adhérent et le modifier par un responsable de groupe</t>
+  </si>
+  <si>
+    <t>#27 bug, pert son lien de parenté avec l'AS</t>
+  </si>
+  <si>
+    <t>#1045, Problem de responsiv design sur iphone 6</t>
+  </si>
+  <si>
+    <t>traité par mon commit aea12edf le 26/08/17 dans le fichier galette.css</t>
+  </si>
+  <si>
+    <t>voir class subscription, gestion de virgule.
+Correction faite dans le commit #debad5
+#1043, plugin paypal, centimes tronqués</t>
+  </si>
+  <si>
+    <t>#1006, uniformisation des types d'engine dans le fichiermysql.sql</t>
+  </si>
+  <si>
+    <t>pris en compte dans mon commit defbe7dd du 28/01/17</t>
+  </si>
+  <si>
+    <t>#1002 La modification des champs supplémentaires ne met pas à jour la Date de modification de la fiche</t>
+  </si>
+  <si>
+    <t>testé en version 8.3.3:
+J'ai fait ce constat avec un champ dynamique (j'avais oublié qu'il était dynamique). 
+Du coup, quand tu modifies juste un champ dynamique, la date de modification ne change pas.
+(Je me sers de ce type de champ pour savoir si la personne est extérieur à l'association, retraité, etc.)</t>
+  </si>
+  <si>
+    <t>26/10/15: ca affecte uniquement la "section" AS car elle est parente des autres, ca nous affiche effectivement 1183 lignes alors qu'il n'y a que 522 adhérents.
+Solution palliative: si l'objectif est d'envoyer un mail, il n'y a pas de problème, le mail sera envoyé 1 fois aux 522 adhérents.
+Si l'objectif est de sortir une liste, tu peux voir dans navigation/gestion des groupes/ adhérents et faire un export en pdf (tout en bas) ou bien suivre la procédure d'export excel.
+Solution définitive: modifier le code source galette mais trop complexe à faire.
+Remonté à Johan par le ticket #1003 et #687</t>
+  </si>
+  <si>
+    <t>Prise en compte dans la V0.2
+#990, perte de parenté d'un groupe sur renommage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">03/09/14: prise en compte en V0.3 avec filtre age&lt;1ans
+modification du fichier </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adherent.php
+#1001, Empêcher les adhérents de rentrer la date actuelle à la place de la ddn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">26/09/14: prise en compte en V0.4 avec la modification des fichiers </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Adherent.php et self_adherent.php
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01/05/17: essais d'intégration dans la class adherent/check mais pose pb lorsqu'un membre du bureau ou l'adherent veut modifier ses propres infos. C'est pour ça que la fonction is_doublon n'est pas appelée par ajouter_adherent.php
+#1000, Empêcher les doublons lors de l'inscription</t>
+    </r>
+  </si>
+  <si>
+    <t>Evol #55 ajout d'une fonction PUBLIC pour que le plugin subscription puisse faire un update du champ date_modif_adh.</t>
+  </si>
+  <si>
+    <t>via include/tarifs.php.</t>
+  </si>
+  <si>
+    <t>Via la class activivity. Remarque il existe des noms identiques entre la class activity et la class groups (getList)</t>
+  </si>
+  <si>
+    <t>Voir onglet dépendances.
+Un gros travail a été fait en 0.8.3.3-amaury et par la suite</t>
+  </si>
+  <si>
+    <t>fait par la feature upload.js
+commit 3f302a12 du 03/11/17 dans plugin subscription</t>
+  </si>
+  <si>
+    <t>Evol #19
+Modifications du footer
+message CNIL sur le droit de modif des infos des adhérents
+Ajout des procédures à télécharger</t>
+  </si>
+  <si>
+    <t>Ajout des documents:
+-AS_Nexter_presentation_galette_indB.pptx
+-procedure_inscription_AS_Nexter_2014_B.pdf
+-procedure_responsable_2014_B.pdf
+dans le footer situé dans le fichier footer.tpl dans galette\templates\default
+Les fichiers sont dans {$subscription_dir}download/
++ajout du message de la CNIL
+#1107, permettre à un plugin d'écrire dans le footer</t>
+  </si>
+  <si>
+    <r>
+      <t>#1108, pouvoir connecter Galette à un outil d'emailing avancé comme phplist
+De : Marc Labé [mailto:marclabe91@gmail.com] 
+Envoyé : mardi 22 décembre 2015 15:19
+À : GOUTTE Fabien
+Objet : Re: galette
+Je comprends les difficultés liées à quelques bugs, rencontrées sur le site de Galette. Je pense qu'on atteint les limites fonctionnelles de Galette qui ne gère pas le timing des départs de messages, ni les adresses en erreur, ni les désincriptions.
+Aujourd'hui nous avons 470 adhérents mais j'ai compté plus de 700 personnes, si on veut faire un mail à toutes les personnes ayant été inscrites sur les 2 dernières années en septembre pour leur annoncer l'ouverture des inscriptions, il faut bien procéder par paquets et planifier sur plusieurs jours.
+Aujourd'hui OVH nous limite à</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 500 par jour mais également à 200 par heure </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>de mémoire. Ces valeurs ont tendance à changer au gré du vent, mais jamais à la hausse. C'est pourquoi un outil de mailing me semble de plus en plus indispensable afin d'éviter de consacrer trop de temps (avec parfois risque d'erreur).
+J'ai commencé à travailler sur le sujet, l'outil est sur le site AS Nexter, j'ai déjà passé pas mal de temps à le configurer (traduction des messages). Il faut faire une passerelle pour transférer les données de Galette vers phpList, je verrai cela avec Amaury qui connait bien la base de données Galette. Il faudra aussi recenser les listes qui seront utiles : tous ceux ayant adhéré au moins une fois, les adhérents AS à jour, les adhérents Plongée ... En revanche pour envoyer un mail à moins de 50 personnes, Galette restera sans doute toujours plus convivial.
+Cette solution prend un peu de temps à mettre en œuvre, je tâcherai de vous présenter quelque chose d'ici le retour des vacances de Noël
+Amicalement
+De : Marc Labé [mailto:marclabe91@gmail.com] 
+Envoyé : mardi 22 décembre 2015 16:24
+À : GOUTTE Fabien; FROMENT Amaury
+Objet : Re: galette
+Fabien
+Cela correspond bien aux besoins que j'avais identifiés.
+Les mails sont envoyés par php, donc ils sont envoyés de la même façon que par Galette avec la même adresse d'expéditeur. C'est OVH qui prend en charge la distribution.
+Les adresses erronées, si elles sont trop nombreuses, bloquent le mécanisme d'envoi, exactement de la même façon que Galette. Il faut alors une intervention manuelle pour débloquer (chez OVH).
+En revanche, l'outil identifie les adresses invalides pour les mettre de côté. L'outil n'envoie qu'un seul mail par personne même si la liste contient des doublons.
+Le logiciel est peut-être plus permissif que Galette pour les pièces jointes mais de toutes façons il vaut mieux les éviter et faire un lien vers notre site AS Nexter.
+Les mails peuvent être écrits soit en mode texte, soit en mode Html (à privilégier car c'est le seul mode permettant le rattachement d'images ...) , mais ils sont insérés dans un modèle qui rajoute entête et pied de page. Dans le pied de page, il y a des liens pour que les utilisateurs puissent se désinscrire de leur abonnement. Il vaut mieux que quelqu'un puisse se désinscrire plutôt qu'il mette le message en spam (ce qui nous porte préjudice).
+L'envers de la médaille, c'est qu'il te faudra quelques explications pour démarrer, mais c'est encore dans mes cordes.
+ Marc
+Voir le doc Guide_emailing_asnexter_indA.docx</t>
+    </r>
+  </si>
+  <si>
+    <t>corrigé par le commit 12bb1c75</t>
+  </si>
+  <si>
+    <t>Ajouter un bouton (visible uniquement pour l'admin) afin de supprimer ce type de fichier (avec double confirmation)
+pris en compte dans le commit d66fc995</t>
+  </si>
+  <si>
+    <t>fonctionnalité native de Galette, j'ai fait une demande d'évol #1102 auprès du développeur.  
+Lié au bug #6. contournement dans le plugin en empechant l'affichage d'un nouvel abonnnement. Commit 92ae993d</t>
+  </si>
+  <si>
+    <t>#55 evol function updateModificationDate(), bug #38 ( 14/07/0014 ou date actuelle)</t>
+  </si>
+  <si>
+    <t>confirmation_clean_file.php</t>
+  </si>
+  <si>
+    <t>Lorsqu'un membre du bureau va dans gestion des abonnées, il a 2 boutons permettant de :
+supprimer les adhérants ne s'étant pas abonné depuis 2ans
+supprimer les vieux fichier (hors formulaire) de plus de 2 ans, les fichier n'étant pas en bdd mais sur le serveur et vis versa</t>
+  </si>
+  <si>
+    <t>message d'avertissement dans "nouvel abonnement" si pas de photo</t>
+  </si>
+  <si>
+    <r>
+      <t>Le but est que le responsable de section puisse modifier/contrôler ses adhérents avant de valider leur abonnement. (quand on a plus de droits comme pour moi et le bureau on n'a pas ces pb. Je connais la cause, je vais étudier la solution).
+03/09/14 prise en compte V0.3. Modifications des fichiers:
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>picture.php</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour afficher la photo même si l'adh n'est pas dans le groupe
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>voir_adherent_read_only.php et tpl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour afficher un profil et </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pouvoir le modifier même s'il n'est pas validé</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>management_subs2.tpl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pour rediriger vers voir_adherent.php si on a validé l'adh et vers voir_adherent_read_only.php sinon</t>
+    </r>
+  </si>
+  <si>
+    <t>Preparation du répertoire à la validation</t>
+  </si>
+  <si>
+    <t>Vider la BDD
+Supprimer les fichiers temporaires (data/template_c et data/photo)
+Faire un start release du plugin si besoin.
+Changer la version de Galette dans galette.inc.php (voir guide de maintenance)
+Utiliser firefox/developpement/Selenium_IDE et jouer la suite de tests basiques
+A la fin de la validation, merger la branche galette_amauryx_dev dans galette_amauryx et ajouter une tag</t>
+  </si>
+  <si>
+    <t>Résultat 
+(galette 7ffe4de81 subscription 896da3f24)</t>
+  </si>
+  <si>
+    <t>une photo nommée 6.jpg est détectée en défaut par galette 0.8.3.3</t>
+  </si>
+  <si>
+    <t>corrigé en galette-0.9-rc3-20171029-56999c78ef</t>
+  </si>
+  <si>
+    <t>A partir du statut validé de l'abonnement, un responsable de section (sans droit d'admin galette) peut modifier le profil de ses adhérents</t>
+  </si>
+  <si>
+    <t>management_subs2.php, photo= oui
+demande d'abonnement impossible si pas de photo. Evol #76</t>
+  </si>
+  <si>
+    <t>Mise à disposition de Galette sur serveur web de l'AS</t>
+  </si>
 </sst>
 </file>
 
@@ -2474,7 +2553,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2551,14 +2630,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2568,17 +2639,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="23">
@@ -2942,7 +3014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3182,18 +3254,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3208,23 +3271,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3256,13 +3322,13 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3274,7 +3340,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
@@ -3378,16 +3444,16 @@
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </left>
         <right style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </right>
         <top style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </top>
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -3857,8 +3923,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I71" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
-  <autoFilter ref="A1:I71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I85" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:I85">
     <filterColumn colId="6"/>
     <filterColumn colId="7"/>
     <filterColumn colId="8"/>
@@ -3904,22 +3970,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table48" displayName="Table48" ref="A2:E127" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A2:E127">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table484" displayName="Table484" ref="A2:D127" totalsRowShown="0" headerRowDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A2:D127">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
     <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
   </autoFilter>
-  <sortState ref="A3:E127">
-    <sortCondition ref="B2:B127"/>
+  <sortState ref="A3:D126">
+    <sortCondition ref="A2:A126"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="4">
     <tableColumn id="1" name="Fichier du plugin" dataDxfId="8"/>
     <tableColumn id="2" name="class utilisée (use…)&#10;Fichier implicite" dataDxfId="7"/>
     <tableColumn id="3" name="Fonction utilisée" dataDxfId="6"/>
     <tableColumn id="4" name="commentaire" dataDxfId="5"/>
-    <tableColumn id="5" name="Galette_amaury_8.3.x"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3934,8 +3998,8 @@
     <filterColumn colId="5"/>
     <filterColumn colId="6"/>
   </autoFilter>
-  <sortState ref="A2:E37">
-    <sortCondition ref="B1:B37"/>
+  <sortState ref="A2:G44">
+    <sortCondition ref="B1:B44"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="4" name="famille de test" dataDxfId="3"/>
@@ -3944,7 +4008,7 @@
     <tableColumn id="2" name="description" dataDxfId="0"/>
     <tableColumn id="3" name="origine de la fonctionalité"/>
     <tableColumn id="6" name="couverture par l'essai"/>
-    <tableColumn id="7" name="Résultat &#10;(galette 2744cfe subscription 29a29ef)"/>
+    <tableColumn id="7" name="Résultat &#10;(galette 7ffe4de81 subscription 896da3f24)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4238,10 +4302,10 @@
   <dimension ref="A1:AB68"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="K51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -4278,51 +4342,51 @@
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="8"/>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="108" t="s">
-        <v>165</v>
-      </c>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="102" t="s">
-        <v>194</v>
-      </c>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="105" t="s">
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="106" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="100" t="s">
+        <v>192</v>
+      </c>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="103" t="s">
+        <v>250</v>
+      </c>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="102" t="s">
         <v>252</v>
       </c>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="104" t="s">
-        <v>255</v>
-      </c>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="101" t="s">
-        <v>283</v>
-      </c>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="99" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="99" t="s">
+        <v>279</v>
+      </c>
+      <c r="X1" s="99"/>
+      <c r="Y1" s="99"/>
+      <c r="Z1" s="97" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="6" t="s">
@@ -4412,7 +4476,7 @@
     </row>
     <row r="3" spans="1:28" ht="24">
       <c r="A3" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>21</v>
@@ -4460,7 +4524,7 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>21</v>
@@ -4506,7 +4570,7 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>21</v>
@@ -4552,7 +4616,7 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>21</v>
@@ -4598,7 +4662,7 @@
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>2</v>
@@ -4644,7 +4708,7 @@
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>2</v>
@@ -4660,7 +4724,7 @@
         <v>41868</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="51" t="s">
         <v>16</v>
@@ -4694,7 +4758,7 @@
     </row>
     <row r="9" spans="1:28" ht="72">
       <c r="A9" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>21</v>
@@ -4717,7 +4781,7 @@
         <v>41885</v>
       </c>
       <c r="J9" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K9" s="51" t="s">
         <v>21</v>
@@ -4726,7 +4790,7 @@
         <v>41900</v>
       </c>
       <c r="M9" s="47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N9" s="51" t="s">
         <v>21</v>
@@ -4735,7 +4799,7 @@
         <v>42212</v>
       </c>
       <c r="P9" s="47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="Q9" s="51" t="s">
         <v>16</v>
@@ -4749,7 +4813,7 @@
         <v>42534</v>
       </c>
       <c r="V9" s="47" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="W9" s="46"/>
       <c r="X9" s="46"/>
@@ -4760,7 +4824,7 @@
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>21</v>
@@ -4776,7 +4840,7 @@
         <v>41876</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H10" s="51" t="s">
         <v>21</v>
@@ -4785,7 +4849,7 @@
         <v>41885</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K10" s="51" t="s">
         <v>21</v>
@@ -4794,7 +4858,7 @@
         <v>41900</v>
       </c>
       <c r="M10" s="47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N10" s="51" t="s">
         <v>21</v>
@@ -4803,7 +4867,7 @@
         <v>42212</v>
       </c>
       <c r="P10" s="47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="51" t="s">
         <v>21</v>
@@ -4812,7 +4876,7 @@
         <v>42288</v>
       </c>
       <c r="S10" s="47" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T10" s="46" t="s">
         <v>21</v>
@@ -4821,7 +4885,7 @@
         <v>42534</v>
       </c>
       <c r="V10" s="47" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="W10" s="46"/>
       <c r="X10" s="46"/>
@@ -4832,7 +4896,7 @@
     </row>
     <row r="11" spans="1:28" ht="24">
       <c r="A11" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>21</v>
@@ -4855,7 +4919,7 @@
         <v>41885</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K11" s="51" t="s">
         <v>16</v>
@@ -4869,7 +4933,7 @@
         <v>42212</v>
       </c>
       <c r="P11" s="47" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="51" t="s">
         <v>16</v>
@@ -4888,7 +4952,7 @@
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>21</v>
@@ -4909,7 +4973,7 @@
         <v>41885</v>
       </c>
       <c r="J12" s="47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K12" s="51" t="s">
         <v>16</v>
@@ -4923,7 +4987,7 @@
         <v>42212</v>
       </c>
       <c r="P12" s="47" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q12" s="51" t="s">
         <v>16</v>
@@ -4942,7 +5006,7 @@
     </row>
     <row r="13" spans="1:28" ht="60">
       <c r="A13" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>21</v>
@@ -4970,7 +5034,7 @@
         <v>41905</v>
       </c>
       <c r="M13" s="47" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="N13" s="51" t="s">
         <v>16</v>
@@ -4994,7 +5058,7 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>2</v>
@@ -5040,7 +5104,7 @@
     </row>
     <row r="15" spans="1:28" ht="252">
       <c r="A15" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>21</v>
@@ -5088,7 +5152,7 @@
     </row>
     <row r="16" spans="1:28" ht="24">
       <c r="A16" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>21</v>
@@ -5104,7 +5168,7 @@
         <v>41854</v>
       </c>
       <c r="G16" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H16" s="51" t="s">
         <v>16</v>
@@ -5138,7 +5202,7 @@
     </row>
     <row r="17" spans="1:28" ht="24">
       <c r="A17" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>21</v>
@@ -5154,7 +5218,7 @@
         <v>41854</v>
       </c>
       <c r="G17" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H17" s="51" t="s">
         <v>16</v>
@@ -5188,7 +5252,7 @@
     </row>
     <row r="18" spans="1:28" ht="108">
       <c r="A18" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>2</v>
@@ -5236,7 +5300,7 @@
     </row>
     <row r="19" spans="1:28" ht="24">
       <c r="A19" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>21</v>
@@ -5252,7 +5316,7 @@
         <v>41854</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H19" s="51" t="s">
         <v>16</v>
@@ -5286,7 +5350,7 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>21</v>
@@ -5329,7 +5393,7 @@
         <v>42534</v>
       </c>
       <c r="V20" s="47" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="W20" s="46"/>
       <c r="X20" s="46"/>
@@ -5340,7 +5404,7 @@
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>21</v>
@@ -5381,7 +5445,7 @@
         <v>42534</v>
       </c>
       <c r="V21" s="47" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="W21" s="46"/>
       <c r="X21" s="46"/>
@@ -5392,7 +5456,7 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>21</v>
@@ -5438,7 +5502,7 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>21</v>
@@ -5484,7 +5548,7 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>21</v>
@@ -5530,7 +5594,7 @@
     </row>
     <row r="25" spans="1:28" ht="52.5" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>21</v>
@@ -5576,7 +5640,7 @@
     </row>
     <row r="26" spans="1:28" ht="36">
       <c r="A26" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>21</v>
@@ -5624,7 +5688,7 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>21</v>
@@ -5657,7 +5721,7 @@
         <v>42212</v>
       </c>
       <c r="P27" s="47" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q27" s="51" t="s">
         <v>21</v>
@@ -5666,7 +5730,7 @@
         <v>42288</v>
       </c>
       <c r="S27" s="47" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="T27" s="46" t="s">
         <v>21</v>
@@ -5675,7 +5739,7 @@
         <v>42563</v>
       </c>
       <c r="V27" s="47" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="W27" s="46" t="s">
         <v>21</v>
@@ -5684,7 +5748,7 @@
         <v>42568</v>
       </c>
       <c r="Y27" s="47" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Z27" s="46" t="s">
         <v>21</v>
@@ -5693,12 +5757,12 @@
         <v>42623</v>
       </c>
       <c r="AB27" s="47" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="24">
       <c r="A28" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>17</v>
@@ -5712,7 +5776,7 @@
         <v>41854</v>
       </c>
       <c r="G28" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H28" s="51" t="s">
         <v>16</v>
@@ -5746,7 +5810,7 @@
     </row>
     <row r="29" spans="1:28" ht="24">
       <c r="A29" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>17</v>
@@ -5760,7 +5824,7 @@
         <v>41854</v>
       </c>
       <c r="G29" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H29" s="51" t="s">
         <v>16</v>
@@ -5909,7 +5973,7 @@
         <v>41889</v>
       </c>
       <c r="J32" s="47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K32" s="51" t="s">
         <v>21</v>
@@ -5918,7 +5982,7 @@
         <v>41900</v>
       </c>
       <c r="M32" s="47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="N32" s="51" t="s">
         <v>16</v>
@@ -5988,7 +6052,7 @@
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B34" s="51" t="s">
         <v>17</v>
@@ -6017,7 +6081,7 @@
         <v>42212</v>
       </c>
       <c r="P34" s="47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q34" s="51" t="s">
         <v>16</v>
@@ -6036,7 +6100,7 @@
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B35" s="51"/>
       <c r="C35" s="46"/>
@@ -6065,7 +6129,7 @@
         <v>42563</v>
       </c>
       <c r="V35" s="47" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="W35" s="46"/>
       <c r="X35" s="46"/>
@@ -6076,7 +6140,7 @@
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B36" s="51"/>
       <c r="C36" s="46"/>
@@ -6105,7 +6169,7 @@
         <v>42563</v>
       </c>
       <c r="V36" s="47" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="W36" s="46"/>
       <c r="X36" s="46"/>
@@ -6116,7 +6180,7 @@
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B37" s="51" t="s">
         <v>17</v>
@@ -6145,7 +6209,7 @@
         <v>42212</v>
       </c>
       <c r="P37" s="47" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="51" t="s">
         <v>16</v>
@@ -6214,7 +6278,7 @@
     </row>
     <row r="39" spans="1:28">
       <c r="A39" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>17</v>
@@ -6248,7 +6312,7 @@
         <v>42288</v>
       </c>
       <c r="S39" s="47" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T39" s="46"/>
       <c r="U39" s="46"/>
@@ -6260,7 +6324,7 @@
         <v>42568</v>
       </c>
       <c r="Y39" s="47" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Z39" s="46" t="s">
         <v>21</v>
@@ -6269,12 +6333,12 @@
         <v>42623</v>
       </c>
       <c r="AB39" s="47" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:28">
       <c r="A40" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>17</v>
@@ -6308,7 +6372,7 @@
         <v>42288</v>
       </c>
       <c r="S40" s="47" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="T40" s="46"/>
       <c r="U40" s="46"/>
@@ -6337,7 +6401,7 @@
       <c r="F41" s="46"/>
       <c r="G41" s="47"/>
       <c r="H41" s="51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I41" s="46">
         <v>41908</v>
@@ -6386,17 +6450,17 @@
         <v>41868</v>
       </c>
       <c r="G42" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H42" s="51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I42" s="46">
         <v>41908</v>
       </c>
       <c r="J42" s="47"/>
       <c r="K42" s="51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L42" s="46">
         <v>41908</v>
@@ -6424,7 +6488,7 @@
     </row>
     <row r="43" spans="1:28">
       <c r="A43" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>21</v>
@@ -6440,7 +6504,7 @@
         <v>41870</v>
       </c>
       <c r="G43" s="47" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H43" s="51" t="s">
         <v>16</v>
@@ -6591,13 +6655,13 @@
       </c>
       <c r="G46" s="47"/>
       <c r="H46" s="51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I46" s="46">
         <v>41891</v>
       </c>
       <c r="J46" s="47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K46" s="51" t="s">
         <v>21</v>
@@ -6606,7 +6670,7 @@
         <v>41908</v>
       </c>
       <c r="M46" s="47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="N46" s="51" t="s">
         <v>21</v>
@@ -6627,7 +6691,7 @@
         <v>42565</v>
       </c>
       <c r="V46" s="47" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="W46" s="46"/>
       <c r="X46" s="46"/>
@@ -6692,7 +6756,7 @@
         <v>41813</v>
       </c>
       <c r="D49" s="30" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="30"/>
@@ -6796,7 +6860,7 @@
     </row>
     <row r="51" spans="1:28" ht="36.75">
       <c r="A51" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>69</v>
@@ -6808,7 +6872,7 @@
         <v>41868</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
         <v>69</v>
@@ -6855,19 +6919,19 @@
     </row>
     <row r="52" spans="1:28" ht="24.75">
       <c r="A52" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" s="29">
         <v>41813</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="F52" s="29">
         <v>41870</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I52" t="s">
         <v>69</v>
@@ -6914,7 +6978,7 @@
     </row>
     <row r="53" spans="1:28">
       <c r="A53" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
         <v>69</v>
@@ -6926,19 +6990,19 @@
         <v>41832</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I53" s="29">
         <v>41885</v>
       </c>
       <c r="J53" s="29" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L53" s="29">
         <v>41908</v>
       </c>
       <c r="M53" s="29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O53" s="29" t="s">
         <v>69</v>
@@ -6956,7 +7020,7 @@
         <v>42534</v>
       </c>
       <c r="V53" s="29" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="X53" t="s">
         <v>69</v>
@@ -6973,7 +7037,7 @@
     </row>
     <row r="54" spans="1:28">
       <c r="A54" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
         <v>69</v>
@@ -6991,7 +7055,7 @@
         <v>41885</v>
       </c>
       <c r="J54" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L54" s="29" t="s">
         <v>69</v>
@@ -7003,7 +7067,7 @@
         <v>42213</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="R54" s="29" t="s">
         <v>69</v>
@@ -7032,7 +7096,7 @@
     </row>
     <row r="55" spans="1:28">
       <c r="A55" s="9" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
@@ -7050,7 +7114,7 @@
         <v>41885</v>
       </c>
       <c r="J55" s="29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L55" s="29" t="s">
         <v>69</v>
@@ -7091,7 +7155,7 @@
     </row>
     <row r="56" spans="1:28">
       <c r="A56" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
@@ -7115,7 +7179,7 @@
         <v>41908</v>
       </c>
       <c r="M56" s="29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O56" s="29" t="s">
         <v>69</v>
@@ -7150,7 +7214,7 @@
     </row>
     <row r="57" spans="1:28">
       <c r="A57" s="9" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
@@ -7180,7 +7244,7 @@
         <v>42213</v>
       </c>
       <c r="P57" s="29" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="R57" s="29" t="s">
         <v>69</v>
@@ -7209,7 +7273,7 @@
     </row>
     <row r="58" spans="1:28">
       <c r="A58" s="9" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
         <v>69</v>
@@ -7245,7 +7309,7 @@
         <v>42511</v>
       </c>
       <c r="S58" s="29" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="U58" s="29" t="s">
         <v>69</v>
@@ -7268,42 +7332,42 @@
     </row>
     <row r="60" spans="1:28">
       <c r="A60" s="12"/>
-      <c r="B60" s="100" t="s">
+      <c r="B60" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="100"/>
-      <c r="E60" s="100" t="s">
+      <c r="C60" s="98"/>
+      <c r="E60" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="F60" s="100"/>
-      <c r="H60" s="100" t="s">
+      <c r="F60" s="98"/>
+      <c r="H60" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="I60" s="100"/>
-      <c r="K60" s="100" t="s">
+      <c r="I60" s="98"/>
+      <c r="K60" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="L60" s="100"/>
-      <c r="N60" s="100" t="s">
+      <c r="L60" s="98"/>
+      <c r="N60" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="O60" s="100"/>
-      <c r="Q60" s="100" t="s">
+      <c r="O60" s="98"/>
+      <c r="Q60" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="R60" s="100"/>
-      <c r="T60" s="100" t="s">
+      <c r="R60" s="98"/>
+      <c r="T60" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="U60" s="100"/>
-      <c r="W60" s="100" t="s">
+      <c r="U60" s="98"/>
+      <c r="W60" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="X60" s="100"/>
-      <c r="Z60" s="100" t="s">
+      <c r="X60" s="98"/>
+      <c r="Z60" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="AA60" s="100"/>
+      <c r="AA60" s="98"/>
     </row>
     <row r="61" spans="1:28" ht="15" customHeight="1">
       <c r="A61" s="1" t="s">
@@ -7907,10 +7971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -7927,10 +7991,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30">
       <c r="A1" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>24</v>
@@ -7974,7 +8038,7 @@
         <v>98</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H2" s="35" t="s">
         <v>92</v>
@@ -8138,13 +8202,13 @@
         <v>33</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G8" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" s="35" t="s">
         <v>92</v>
@@ -8253,10 +8317,10 @@
         <v>29</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G12" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>92</v>
@@ -8364,13 +8428,13 @@
         <v>35</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G16" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>92</v>
@@ -8460,7 +8524,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="105">
+    <row r="20" spans="1:9" ht="135">
       <c r="A20" s="35">
         <v>19</v>
       </c>
@@ -8480,7 +8544,7 @@
         <v>113</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>114</v>
+        <v>549</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>92</v>
@@ -8503,13 +8567,13 @@
         <v>35</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G21" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>92</v>
@@ -8538,7 +8602,7 @@
         <v>55</v>
       </c>
       <c r="G22" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>37</v>
@@ -8590,13 +8654,13 @@
         <v>33</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G24" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>92</v>
@@ -8619,13 +8683,13 @@
         <v>35</v>
       </c>
       <c r="E25" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="37" t="s">
-        <v>116</v>
-      </c>
       <c r="G25" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H25" s="35" t="s">
         <v>92</v>
@@ -8648,13 +8712,13 @@
         <v>35</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>37</v>
@@ -8663,7 +8727,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="150">
+    <row r="27" spans="1:9" ht="165">
       <c r="A27" s="35">
         <v>26</v>
       </c>
@@ -8680,10 +8744,10 @@
         <v>29</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>254</v>
+        <v>510</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>92</v>
@@ -8706,13 +8770,13 @@
         <v>35</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>121</v>
+        <v>540</v>
       </c>
       <c r="H28" s="35" t="s">
         <v>92</v>
@@ -8738,10 +8802,10 @@
         <v>29</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G29" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H29" s="35" t="s">
         <v>92</v>
@@ -8764,13 +8828,13 @@
         <v>35</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F30" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="37" t="s">
         <v>139</v>
-      </c>
-      <c r="G30" s="37" t="s">
-        <v>140</v>
       </c>
       <c r="H30" s="35" t="s">
         <v>92</v>
@@ -8796,10 +8860,10 @@
         <v>29</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G31" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H31" s="35" t="s">
         <v>92</v>
@@ -8825,10 +8889,10 @@
         <v>29</v>
       </c>
       <c r="F32" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="37" t="s">
         <v>148</v>
-      </c>
-      <c r="G32" s="37" t="s">
-        <v>149</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>92</v>
@@ -8854,10 +8918,10 @@
         <v>29</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H33" s="35" t="s">
         <v>92</v>
@@ -8883,10 +8947,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H34" s="35" t="s">
         <v>37</v>
@@ -8909,13 +8973,13 @@
         <v>35</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G35" s="37" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="H35" s="35" t="s">
         <v>92</v>
@@ -8938,13 +9002,13 @@
         <v>35</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G36" s="37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H36" s="35" t="s">
         <v>92</v>
@@ -8970,10 +9034,10 @@
         <v>29</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G37" s="37" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H37" s="35" t="s">
         <v>92</v>
@@ -8999,10 +9063,10 @@
         <v>29</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G38" s="37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H38" s="35" t="s">
         <v>92</v>
@@ -9028,10 +9092,10 @@
         <v>29</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G39" s="37" t="s">
-        <v>172</v>
+        <v>541</v>
       </c>
       <c r="H39" s="35" t="s">
         <v>92</v>
@@ -9054,13 +9118,13 @@
         <v>33</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" s="37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H40" s="35" t="s">
         <v>37</v>
@@ -9083,13 +9147,13 @@
         <v>35</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G41" s="37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H41" s="35" t="s">
         <v>92</v>
@@ -9115,7 +9179,7 @@
         <v>31</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="35" t="s">
@@ -9139,13 +9203,13 @@
         <v>33</v>
       </c>
       <c r="E43" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="F43" s="37" t="s">
-        <v>189</v>
-      </c>
       <c r="G43" s="37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H43" s="35" t="s">
         <v>92</v>
@@ -9154,7 +9218,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="90">
+    <row r="44" spans="1:9" ht="105">
       <c r="A44" s="34">
         <v>43</v>
       </c>
@@ -9171,10 +9235,10 @@
         <v>29</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G44" s="37" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="H44" s="35" t="s">
         <v>92</v>
@@ -9200,10 +9264,10 @@
         <v>29</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G45" s="37" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H45" s="35" t="s">
         <v>92</v>
@@ -9229,10 +9293,10 @@
         <v>29</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G46" s="37" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="35" t="s">
@@ -9256,10 +9320,10 @@
         <v>29</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>458</v>
+        <v>539</v>
       </c>
       <c r="H47" s="35" t="s">
         <v>37</v>
@@ -9285,10 +9349,10 @@
         <v>31</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G48" s="37" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H48" s="35" t="s">
         <v>92</v>
@@ -9311,13 +9375,13 @@
         <v>33</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G49" s="37" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>92</v>
@@ -9343,10 +9407,10 @@
         <v>29</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G50" s="37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H50" s="35"/>
       <c r="I50" s="35"/>
@@ -9368,10 +9432,10 @@
         <v>29</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G51" s="37" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H51" s="35" t="s">
         <v>92</v>
@@ -9394,13 +9458,13 @@
         <v>35</v>
       </c>
       <c r="E52" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="37" t="s">
         <v>215</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G52" s="37" t="s">
-        <v>217</v>
       </c>
       <c r="H52" s="35" t="s">
         <v>92</v>
@@ -9423,13 +9487,13 @@
         <v>33</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G53" s="37" t="s">
-        <v>539</v>
+        <v>487</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>92</v>
@@ -9455,10 +9519,10 @@
         <v>29</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G54" s="37" t="s">
-        <v>264</v>
+        <v>550</v>
       </c>
       <c r="H54" s="35" t="s">
         <v>92</v>
@@ -9481,13 +9545,13 @@
         <v>33</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F55" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="G55" s="43" t="s">
         <v>265</v>
-      </c>
-      <c r="G55" s="43" t="s">
-        <v>269</v>
       </c>
       <c r="H55" s="42" t="s">
         <v>92</v>
@@ -9513,10 +9577,10 @@
         <v>29</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G56" s="43" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H56" s="42" t="s">
         <v>92</v>
@@ -9542,10 +9606,10 @@
         <v>31</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G57" s="43" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="H57" s="42" t="s">
         <v>92</v>
@@ -9571,10 +9635,10 @@
         <v>31</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G58" s="43" t="s">
-        <v>495</v>
+        <v>454</v>
       </c>
       <c r="H58" s="42" t="s">
         <v>92</v>
@@ -9600,10 +9664,10 @@
         <v>31</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G59" s="43" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="H59" s="42" t="s">
         <v>92</v>
@@ -9629,10 +9693,10 @@
         <v>29</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G60" s="43" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H60" s="42" t="s">
         <v>92</v>
@@ -9641,7 +9705,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="120">
+    <row r="61" spans="1:9" ht="135">
       <c r="A61" s="42">
         <v>60</v>
       </c>
@@ -9658,20 +9722,24 @@
         <v>31</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="G61" s="43" t="s">
-        <v>514</v>
-      </c>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-    </row>
-    <row r="62" spans="1:9" ht="150">
+        <v>494</v>
+      </c>
+      <c r="H61" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I61" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="75">
       <c r="A62" s="42">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="44">
         <v>42685</v>
@@ -9683,17 +9751,17 @@
         <v>31</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="G62" s="43" t="s">
-        <v>404</v>
+        <v>497</v>
       </c>
       <c r="H62" s="42"/>
       <c r="I62" s="42"/>
     </row>
-    <row r="63" spans="1:9" ht="60">
+    <row r="63" spans="1:9" ht="30">
       <c r="A63" s="42">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="42">
         <v>1</v>
@@ -9708,60 +9776,64 @@
         <v>31</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="G63" s="43" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="H63" s="42"/>
       <c r="I63" s="42"/>
     </row>
-    <row r="64" spans="1:9" ht="390">
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="42">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B64" s="42">
         <v>1</v>
       </c>
       <c r="C64" s="44">
-        <v>42685</v>
+        <v>42811</v>
       </c>
       <c r="D64" s="42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E64" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="G64" s="43" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H64" s="42"/>
       <c r="I64" s="42"/>
     </row>
-    <row r="65" spans="1:9" ht="30">
+    <row r="65" spans="1:9" ht="60">
       <c r="A65" s="42">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B65" s="42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" s="44">
-        <v>42391</v>
+        <v>42977</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E65" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>408</v>
-      </c>
-      <c r="G65" s="43"/>
-      <c r="H65" s="42"/>
+        <v>502</v>
+      </c>
+      <c r="G65" s="43" t="s">
+        <v>552</v>
+      </c>
+      <c r="H65" s="42" t="s">
+        <v>92</v>
+      </c>
       <c r="I65" s="42"/>
     </row>
     <row r="66" spans="1:9" ht="30">
@@ -9781,15 +9853,17 @@
         <v>31</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="G66" s="43" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="H66" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="I66" s="42"/>
+      <c r="I66" s="42" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="67" spans="1:9" ht="105">
       <c r="A67" s="42">
@@ -9808,10 +9882,10 @@
         <v>31</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="G67" s="43" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="H67" s="42" t="s">
         <v>92</v>
@@ -9837,10 +9911,10 @@
         <v>31</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="G68" s="43" t="s">
-        <v>499</v>
+        <v>457</v>
       </c>
       <c r="H68" s="42" t="s">
         <v>92</v>
@@ -9849,27 +9923,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="45">
+    <row r="69" spans="1:9" ht="150">
       <c r="A69" s="42">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B69" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="44">
-        <v>42811</v>
+        <v>42685</v>
       </c>
       <c r="D69" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E69" s="42" t="s">
         <v>31</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>511</v>
+        <v>384</v>
       </c>
       <c r="G69" s="43" t="s">
-        <v>512</v>
+        <v>385</v>
       </c>
       <c r="H69" s="42"/>
       <c r="I69" s="42"/>
@@ -9891,15 +9965,17 @@
         <v>31</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>528</v>
+        <v>480</v>
       </c>
       <c r="G70" s="43" t="s">
-        <v>532</v>
+        <v>483</v>
       </c>
       <c r="H70" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="I70" s="42"/>
+      <c r="I70" s="42" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="71" spans="1:9" ht="45">
       <c r="A71" s="42">
@@ -9918,15 +9994,405 @@
         <v>31</v>
       </c>
       <c r="F71" s="43" t="s">
+        <v>485</v>
+      </c>
+      <c r="G71" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="H71" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I71" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="60">
+      <c r="A72" s="42">
+        <v>70</v>
+      </c>
+      <c r="B72" s="42">
+        <v>1</v>
+      </c>
+      <c r="C72" s="44">
+        <v>42870</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>493</v>
+      </c>
+      <c r="G72" s="43"/>
+      <c r="H72" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I72" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="45">
+      <c r="A73" s="42">
+        <v>71</v>
+      </c>
+      <c r="B73" s="42">
+        <v>1</v>
+      </c>
+      <c r="C73" s="44">
+        <v>42969</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="G73" s="43" t="s">
+        <v>534</v>
+      </c>
+      <c r="H73" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I73" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="165">
+      <c r="A74" s="42">
+        <v>72</v>
+      </c>
+      <c r="B74" s="42">
+        <v>1</v>
+      </c>
+      <c r="C74" s="44">
+        <v>42970</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" s="43" t="s">
+        <v>499</v>
+      </c>
+      <c r="G74" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="H74" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I74" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="165">
+      <c r="A75" s="42">
+        <v>73</v>
+      </c>
+      <c r="B75" s="42">
+        <v>1</v>
+      </c>
+      <c r="C75" s="44">
+        <v>42816</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>496</v>
+      </c>
+      <c r="G75" s="43" t="s">
+        <v>498</v>
+      </c>
+      <c r="H75" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I75" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="60">
+      <c r="A76" s="42">
+        <v>76</v>
+      </c>
+      <c r="B76" s="42">
+        <v>2</v>
+      </c>
+      <c r="C76" s="44">
+        <v>43035</v>
+      </c>
+      <c r="D76" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" s="43" t="s">
+        <v>505</v>
+      </c>
+      <c r="G76" s="43" t="s">
+        <v>553</v>
+      </c>
+      <c r="H76" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I76" s="42"/>
+    </row>
+    <row r="77" spans="1:9" ht="225">
+      <c r="A77" s="42">
+        <v>75</v>
+      </c>
+      <c r="B77" s="42">
+        <v>2</v>
+      </c>
+      <c r="C77" s="44">
+        <v>42983</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="G77" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="H77" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I77" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="30">
+      <c r="A78" s="42">
+        <v>77</v>
+      </c>
+      <c r="B78" s="42">
+        <v>2</v>
+      </c>
+      <c r="C78" s="44">
+        <v>43035</v>
+      </c>
+      <c r="D78" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F78" s="43" t="s">
+        <v>506</v>
+      </c>
+      <c r="G78" s="43" t="s">
+        <v>507</v>
+      </c>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+    </row>
+    <row r="79" spans="1:9" ht="30">
+      <c r="A79" s="42">
+        <v>64</v>
+      </c>
+      <c r="B79" s="42">
+        <v>3</v>
+      </c>
+      <c r="C79" s="44">
+        <v>42391</v>
+      </c>
+      <c r="D79" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G79" s="43" t="s">
+        <v>547</v>
+      </c>
+      <c r="H79" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I79" s="42"/>
+    </row>
+    <row r="80" spans="1:9" ht="165">
+      <c r="A80" s="42">
+        <v>78</v>
+      </c>
+      <c r="B80" s="42">
+        <v>3</v>
+      </c>
+      <c r="C80" s="44">
+        <v>43041</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F80" s="43" t="s">
+        <v>508</v>
+      </c>
+      <c r="G80" s="43" t="s">
+        <v>509</v>
+      </c>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+    </row>
+    <row r="81" spans="1:9" ht="30">
+      <c r="A81" s="42">
+        <v>79</v>
+      </c>
+      <c r="B81" s="42">
+        <v>3</v>
+      </c>
+      <c r="C81" s="44">
+        <v>43042</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" s="43" t="s">
+        <v>511</v>
+      </c>
+      <c r="G81" s="43" t="s">
+        <v>551</v>
+      </c>
+      <c r="H81" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I81" s="42"/>
+    </row>
+    <row r="82" spans="1:9" ht="30">
+      <c r="A82" s="42">
+        <v>80</v>
+      </c>
+      <c r="B82" s="42">
+        <v>2</v>
+      </c>
+      <c r="C82" s="44">
+        <v>42995</v>
+      </c>
+      <c r="D82" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F82" s="43" t="s">
+        <v>532</v>
+      </c>
+      <c r="G82" s="43" t="s">
+        <v>533</v>
+      </c>
+      <c r="H82" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I82" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="42">
+        <v>81</v>
+      </c>
+      <c r="B83" s="42">
+        <v>3</v>
+      </c>
+      <c r="C83" s="44">
+        <v>42763</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" s="43" t="s">
+        <v>535</v>
+      </c>
+      <c r="G83" s="43" t="s">
         <v>536</v>
       </c>
-      <c r="G71" s="43" t="s">
+      <c r="H83" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I83" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="105">
+      <c r="A84" s="42">
+        <v>82</v>
+      </c>
+      <c r="B84" s="42">
+        <v>3</v>
+      </c>
+      <c r="C84" s="44">
+        <v>42756</v>
+      </c>
+      <c r="D84" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F84" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="H71" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="I71" s="42"/>
+      <c r="G84" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="H84" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I84" s="42" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="42">
+        <v>83</v>
+      </c>
+      <c r="B85" s="42">
+        <v>3</v>
+      </c>
+      <c r="C85" s="44">
+        <v>43044</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F85" s="43" t="s">
+        <v>562</v>
+      </c>
+      <c r="G85" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="H85" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="I85" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9960,7 +10426,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25.5">
@@ -9973,20 +10439,20 @@
       <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="97" t="s">
-        <v>507</v>
-      </c>
-      <c r="G2" s="97" t="s">
-        <v>508</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>509</v>
-      </c>
-      <c r="I2" s="95" t="s">
-        <v>510</v>
+      <c r="F2" s="94" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>465</v>
+      </c>
+      <c r="H2" s="94" t="s">
+        <v>466</v>
+      </c>
+      <c r="I2" s="92" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45">
@@ -9999,19 +10465,19 @@
       <c r="C3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="96" t="s">
+      <c r="H3" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="92" t="s">
+      <c r="I3" s="89" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10020,7 +10486,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="27" t="s">
         <v>76</v>
@@ -10029,7 +10495,7 @@
     <row r="5" spans="1:9">
       <c r="A5" s="24"/>
       <c r="B5" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>77</v>
@@ -10062,7 +10528,7 @@
         <v>76</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10172,7 +10638,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="29">
         <v>41637</v>
@@ -10180,7 +10646,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" s="29">
         <v>41908</v>
@@ -10188,7 +10654,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3">
         <f>17+4+2+3+2+2+1+17+8+8+9</f>
@@ -10197,7 +10663,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B4">
         <f>136+117+116+292+180+152+131+298+659+280+179+675+167+131+42+47+45+346+657+754+530+221+154+9+58+71+70+113+53+210+145+123+34+175+205+158+21+22+69+134+3+58+208+275+31+293+778</f>
@@ -10206,7 +10672,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B6">
         <f>60+2+7+1+9+5+2+2+9+16+3+7+7+36+74+12+22+6+14+4+2+7+3+1+1+47+3+70+6+1+22+7+2+9+6+10+2+3+8+8+6+5+29+20+2+21+7+19+2+8+8+2+65+77+15+2</f>
@@ -10220,2125 +10686,1778 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E153"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37" style="9" customWidth="1"/>
+    <col min="1" max="1" width="60.42578125" style="9" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="9" customWidth="1"/>
     <col min="3" max="3" width="61.85546875" style="9" customWidth="1"/>
     <col min="4" max="4" width="75.5703125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60.75" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
-    </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="1" spans="1:4" ht="60.75" customHeight="1">
+      <c r="A1" s="107" t="s">
+        <v>513</v>
+      </c>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="109"/>
+    </row>
+    <row r="2" spans="1:4" ht="30">
       <c r="A2" s="72" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C2" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="62"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="62"/>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="D6" s="70"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" s="70"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" s="70"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="65" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="C9" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="70"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="63" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="62"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="70"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>298</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="70"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="70"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D2" s="64" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="85" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="74" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="74" t="s">
+      <c r="B16" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="E3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>402</v>
-      </c>
-      <c r="E4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45">
-      <c r="A5" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45">
-      <c r="A6" s="69" t="s">
-        <v>400</v>
-      </c>
-      <c r="B6" s="69" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="65" t="s">
-        <v>400</v>
-      </c>
-      <c r="B7" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>385</v>
-      </c>
-      <c r="E7" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>303</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>304</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="67" t="s">
-        <v>298</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="C10" s="60" t="s">
-        <v>303</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E10" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="63" t="s">
-        <v>277</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E11" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E12" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C13" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E13" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="75" t="s">
-        <v>331</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E14" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="76" t="s">
-        <v>331</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="D15" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E15" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="63" t="s">
-        <v>332</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E16" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>295</v>
-      </c>
       <c r="C17" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E17" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>302</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="65" t="s">
-        <v>332</v>
+        <v>294</v>
       </c>
       <c r="B18" s="74" t="s">
         <v>295</v>
       </c>
       <c r="C18" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="D18" s="62" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="66" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="D20" s="60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45">
+      <c r="A21" s="69" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>369</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="66" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="61" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
+      <c r="A24" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="61" t="s">
         <v>374</v>
       </c>
-      <c r="E18" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="C19" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="D19" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E19" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="60" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="30">
+      <c r="A25" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="B25" s="77" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30">
+      <c r="A26" s="65" t="s">
+        <v>382</v>
+      </c>
+      <c r="B26" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="D27" s="62"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="D28" s="62"/>
+    </row>
+    <row r="29" spans="1:4" ht="30">
+      <c r="A29" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="D20" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E20" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="74" t="s">
-        <v>335</v>
-      </c>
-      <c r="B21" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E21" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="67" t="s">
-        <v>347</v>
-      </c>
-      <c r="B22" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="D22" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="74" t="s">
-        <v>347</v>
-      </c>
-      <c r="B23" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="C23" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E23" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="C24" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="D24" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E24" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="75" t="s">
-        <v>348</v>
-      </c>
-      <c r="B25" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="C25" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="D25" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E25" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="B26" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E26" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="B27" s="66" t="s">
-        <v>295</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>304</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E27" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>295</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E28" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="65" t="s">
-        <v>295</v>
-      </c>
       <c r="C29" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E29" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>318</v>
+      </c>
+      <c r="D29" s="70"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>295</v>
+        <v>254</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>315</v>
       </c>
       <c r="C30" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E30" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>316</v>
+      </c>
+      <c r="D30" s="70"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="B31" s="75" t="s">
-        <v>295</v>
+        <v>254</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>315</v>
       </c>
       <c r="C31" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="D31" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E31" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="B32" s="66" t="s">
+      <c r="D31" s="70"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="D32" s="62"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="B33" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="D33" s="62"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>350</v>
+      </c>
+      <c r="D34" s="62"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="B35" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>351</v>
+      </c>
+      <c r="D35" s="62"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="D36" s="70"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="B37" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="D37" s="70"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="D38" s="62"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="D39" s="62"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="C40" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="D40" s="62"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" s="70"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B42" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="C42" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D42" s="70"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C43" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="D43" s="70"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" s="70"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D45" s="70"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B46" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="D46" s="61"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="D47" s="70"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" s="60" t="s">
+        <v>291</v>
+      </c>
+      <c r="C49" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="D49" s="62"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="74" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" s="74" t="s">
+        <v>291</v>
+      </c>
+      <c r="C50" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="D50" s="62"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51" s="62"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B52" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="C32" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="D32" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E32" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="B33" s="63" t="s">
+      <c r="C52" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="D52" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B53" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="C33" s="60" t="s">
-        <v>314</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E33" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="B34" s="65" t="s">
+      <c r="C53" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D53" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B54" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="C34" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="D34" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E34" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="C35" s="60" t="s">
-        <v>346</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E35" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="B36" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="C36" s="60" t="s">
-        <v>354</v>
-      </c>
-      <c r="D36" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E36" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="B37" s="74" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>355</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>374</v>
-      </c>
-      <c r="E37" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30">
-      <c r="A38" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="B38" s="67" t="s">
-        <v>321</v>
-      </c>
-      <c r="C38" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="D38" s="70" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>319</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>320</v>
-      </c>
-      <c r="D39" s="70" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="B40" s="65" t="s">
-        <v>319</v>
-      </c>
-      <c r="C40" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="B41" s="67" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="D41" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="B42" s="76" t="s">
-        <v>299</v>
-      </c>
-      <c r="C42" s="60" t="s">
-        <v>307</v>
-      </c>
-      <c r="D42" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="B43" s="74" t="s">
-        <v>299</v>
-      </c>
-      <c r="C43" s="60" t="s">
-        <v>308</v>
-      </c>
-      <c r="D43" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="B44" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="C44" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="D44" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="B45" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="C45" s="60" t="s">
-        <v>307</v>
-      </c>
-      <c r="D45" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="B46" s="74" t="s">
-        <v>299</v>
-      </c>
-      <c r="C46" s="60" t="s">
-        <v>308</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B47" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="D47" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B48" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="C48" s="60" t="s">
-        <v>307</v>
-      </c>
-      <c r="D48" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="B49" s="76" t="s">
-        <v>299</v>
-      </c>
-      <c r="C49" s="60" t="s">
-        <v>308</v>
-      </c>
-      <c r="D49" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="74" t="s">
-        <v>348</v>
-      </c>
-      <c r="B50" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>306</v>
-      </c>
-      <c r="D50" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="B51" s="65" t="s">
-        <v>299</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>307</v>
-      </c>
-      <c r="D51" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="B52" s="66" t="s">
-        <v>299</v>
-      </c>
-      <c r="C52" s="60" t="s">
-        <v>308</v>
-      </c>
-      <c r="D52" s="60" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="B53" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="D53" s="60" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="B54" s="65" t="s">
-        <v>299</v>
-      </c>
       <c r="C54" s="60" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="D54" s="60" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="B55" s="65" t="s">
-        <v>299</v>
+        <v>331</v>
+      </c>
+      <c r="B55" s="75" t="s">
+        <v>296</v>
       </c>
       <c r="C55" s="60" t="s">
         <v>307</v>
       </c>
       <c r="D55" s="60" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="B56" s="65" t="s">
-        <v>299</v>
+        <v>331</v>
+      </c>
+      <c r="B56" s="75" t="s">
+        <v>292</v>
       </c>
       <c r="C56" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="D56" s="70"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B57" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D57" s="70"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B58" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>324</v>
+      </c>
+      <c r="D58" s="70"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B59" s="66" t="s">
+        <v>293</v>
+      </c>
+      <c r="C59" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="D59" s="61"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B60" s="63" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" s="60" t="s">
+        <v>321</v>
+      </c>
+      <c r="D60" s="70"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B61" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="D61" s="70"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B62" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" s="60" t="s">
+        <v>311</v>
+      </c>
+      <c r="D62" s="70"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B63" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="C63" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="D63" s="70"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="65" t="s">
+        <v>331</v>
+      </c>
+      <c r="B64" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="C64" s="60" t="s">
         <v>308</v>
       </c>
-      <c r="D56" s="60" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="B57" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="C57" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="60" t="s">
+      <c r="D64" s="70"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="B65" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="C65" s="60" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="65" t="s">
+      <c r="D65" s="62"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="B66" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="C66" s="60" t="s">
         <v>335</v>
       </c>
-      <c r="B58" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="D58" s="60" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B59" s="67" t="s">
-        <v>300</v>
-      </c>
-      <c r="C59" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="D59" s="60" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="B60" s="63" t="s">
-        <v>300</v>
-      </c>
-      <c r="C60" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="D60" s="60" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="B61" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="C61" s="60" t="s">
-        <v>311</v>
-      </c>
-      <c r="D61" s="70" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="B62" s="66" t="s">
-        <v>300</v>
-      </c>
-      <c r="C62" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="D62" s="70" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="65" t="s">
-        <v>400</v>
-      </c>
-      <c r="B63" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="61" t="s">
-        <v>393</v>
-      </c>
-      <c r="E63" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B64" s="75" t="s">
-        <v>337</v>
-      </c>
-      <c r="C64" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="D64" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B65" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="C65" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="D65" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="66" t="s">
-        <v>347</v>
-      </c>
-      <c r="B66" s="76" t="s">
-        <v>337</v>
-      </c>
-      <c r="C66" s="60" t="s">
-        <v>341</v>
-      </c>
-      <c r="D66" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="D66" s="62"/>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="74" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B67" s="74" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="C67" s="60" t="s">
         <v>342</v>
       </c>
-      <c r="D67" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="D67" s="62"/>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B68" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="D68" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B69" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D69" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B70" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D70" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B71" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="D71" s="60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B72" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="C72" s="60" t="s">
+        <v>332</v>
+      </c>
+      <c r="D72" s="70"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B73" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C73" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="D73" s="70"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B74" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="C74" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="D74" s="70"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B75" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="D75" s="70"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="66" t="s">
+        <v>343</v>
+      </c>
+      <c r="B76" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="D76" s="70"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="74" t="s">
+        <v>343</v>
+      </c>
+      <c r="B77" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="C77" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="D77" s="70"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B78" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C78" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="D78" s="70"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B79" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="C79" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="D79" s="70"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B80" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" s="60" t="s">
+        <v>334</v>
+      </c>
+      <c r="D80" s="70"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="65" t="s">
+        <v>343</v>
+      </c>
+      <c r="B81" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="C81" s="60" t="s">
+        <v>325</v>
+      </c>
+      <c r="D81" s="70"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="B82" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="C82" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82" s="62"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B83" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="C83" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="D83" s="62"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C84" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="D84" s="62"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="B85" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="D85" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="74" t="s">
+        <v>344</v>
+      </c>
+      <c r="B86" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C86" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D86" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B87" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="C87" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D87" s="60" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B88" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="C88" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" s="60" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30">
+      <c r="A89" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B89" s="63" t="s">
+        <v>292</v>
+      </c>
+      <c r="C89" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="D89" s="60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30">
+      <c r="A90" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B90" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C90" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="D90" s="60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30">
+      <c r="A91" s="65" t="s">
+        <v>344</v>
+      </c>
+      <c r="B91" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="C91" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D91" s="60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="B92" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="D92" s="62"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="B93" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="C93" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="D93" s="62"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="B94" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="D94" s="62"/>
+    </row>
+    <row r="95" spans="1:4" ht="30">
+      <c r="A95" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="B95" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" s="60" t="s">
+        <v>301</v>
+      </c>
+      <c r="D95" s="60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="30">
+      <c r="A96" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="B96" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C96" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="D96" s="60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30">
+      <c r="A97" s="65" t="s">
+        <v>360</v>
+      </c>
+      <c r="B97" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97" s="60" t="s">
+        <v>322</v>
+      </c>
+      <c r="D97" s="60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30">
+      <c r="A98" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="B98" s="66" t="s">
+        <v>292</v>
+      </c>
+      <c r="C98" s="60" t="s">
         <v>347</v>
       </c>
-      <c r="B68" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="C68" s="60" t="s">
-        <v>343</v>
-      </c>
-      <c r="D68" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B69" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="C69" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="D69" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B70" s="74" t="s">
-        <v>337</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="D70" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="B71" s="75" t="s">
-        <v>337</v>
-      </c>
-      <c r="C71" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="D71" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="B72" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="C72" s="60" t="s">
+      <c r="D98" s="60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30">
+      <c r="A99" s="74" t="s">
+        <v>360</v>
+      </c>
+      <c r="B99" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="C99" s="60" t="s">
+        <v>349</v>
+      </c>
+      <c r="D99" s="60" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="73" t="s">
+        <v>368</v>
+      </c>
+      <c r="B100" s="96" t="s">
+        <v>319</v>
+      </c>
+      <c r="C100" s="68"/>
+      <c r="D100" s="68"/>
+    </row>
+    <row r="101" spans="1:4" ht="30">
+      <c r="A101" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="D72" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="B73" s="76" t="s">
-        <v>337</v>
-      </c>
-      <c r="C73" s="60" t="s">
-        <v>368</v>
-      </c>
-      <c r="D73" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="B74" s="74" t="s">
-        <v>337</v>
-      </c>
-      <c r="C74" s="60" t="s">
-        <v>369</v>
-      </c>
-      <c r="D74" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="B75" s="65" t="s">
-        <v>337</v>
-      </c>
-      <c r="C75" s="60" t="s">
-        <v>370</v>
-      </c>
-      <c r="D75" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="66" t="s">
-        <v>371</v>
-      </c>
-      <c r="B76" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="C76" s="60" t="s">
-        <v>344</v>
-      </c>
-      <c r="D76" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="74" t="s">
-        <v>371</v>
-      </c>
-      <c r="B77" s="74" t="s">
-        <v>337</v>
-      </c>
-      <c r="C77" s="60" t="s">
-        <v>345</v>
-      </c>
-      <c r="D77" s="70" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="45">
-      <c r="A78" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="C78" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="D78" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="E78" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="65" t="s">
+      <c r="B101" s="66" t="s">
+        <v>291</v>
+      </c>
+      <c r="C101" s="60" t="s">
+        <v>362</v>
+      </c>
+      <c r="D101" s="61" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="B102" s="63" t="s">
+        <v>291</v>
+      </c>
+      <c r="C102" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="D102" s="62"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="B103" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="D103" s="62"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="B104" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="C104" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="B79" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="C79" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="D79" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E79" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="B80" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="C80" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="D80" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E80" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="B81" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="C81" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="D81" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E81" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="B82" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="C82" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="D82" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E82" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="B83" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="C83" s="60" t="s">
+      <c r="D104" s="70"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="76" t="s">
+        <v>367</v>
+      </c>
+      <c r="B105" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="D105" s="70"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="B106" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" s="60" t="s">
+        <v>364</v>
+      </c>
+      <c r="D106" s="70"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="B107" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="D107" s="70"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="B108" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" s="60" t="s">
+        <v>366</v>
+      </c>
+      <c r="D108" s="70"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="B109" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C109" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="D109" s="70"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="74" t="s">
+        <v>367</v>
+      </c>
+      <c r="B110" s="74" t="s">
+        <v>333</v>
+      </c>
+      <c r="C110" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="D110" s="70"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="75" t="s">
+        <v>367</v>
+      </c>
+      <c r="B111" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" s="60" t="s">
         <v>329</v>
       </c>
-      <c r="D83" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E83" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="B84" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="C84" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="D84" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E84" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="76" t="s">
-        <v>335</v>
-      </c>
-      <c r="B85" s="76" t="s">
-        <v>296</v>
-      </c>
-      <c r="C85" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="D85" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E85" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="74" t="s">
-        <v>335</v>
-      </c>
-      <c r="B86" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="C86" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="D86" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E86" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B87" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="C87" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="D87" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E87" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B88" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="C88" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="D88" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E88" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="65" t="s">
-        <v>347</v>
-      </c>
-      <c r="B89" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="C89" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="D89" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E89" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="45">
-      <c r="A90" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="B90" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="C90" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="D90" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="E90" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="45">
-      <c r="A91" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="B91" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="C91" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="D91" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="E91" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="45">
-      <c r="A92" s="65" t="s">
-        <v>348</v>
-      </c>
-      <c r="B92" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="C92" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="D92" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="E92" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="45">
-      <c r="A93" s="75" t="s">
-        <v>364</v>
-      </c>
-      <c r="B93" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="C93" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="D93" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="E93" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="45">
-      <c r="A94" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="B94" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="C94" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="D94" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="E94" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="45">
-      <c r="A95" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="B95" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="C95" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="D95" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="E95" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="45">
-      <c r="A96" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="B96" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="C96" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="D96" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="E96" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="45">
-      <c r="A97" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="B97" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="C97" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="D97" s="60" t="s">
-        <v>378</v>
-      </c>
-      <c r="E97" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="67" t="s">
-        <v>371</v>
-      </c>
-      <c r="B98" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="C98" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="D98" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E98" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="74" t="s">
-        <v>371</v>
-      </c>
-      <c r="B99" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="C99" s="60" t="s">
-        <v>365</v>
-      </c>
-      <c r="D99" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E99" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="B100" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="C100" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="D100" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E100" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="B101" s="77" t="s">
-        <v>296</v>
-      </c>
-      <c r="C101" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="D101" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E101" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="B102" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="C102" s="60" t="s">
-        <v>363</v>
-      </c>
-      <c r="D102" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E102" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="B103" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="C103" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="D103" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E103" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="B104" s="67" t="s">
-        <v>296</v>
-      </c>
-      <c r="C104" s="60" t="s">
-        <v>350</v>
-      </c>
-      <c r="D104" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E104" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="76" t="s">
-        <v>349</v>
-      </c>
-      <c r="B105" s="76" t="s">
-        <v>296</v>
-      </c>
-      <c r="C105" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="D105" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E105" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="74" t="s">
-        <v>349</v>
-      </c>
-      <c r="B106" s="74" t="s">
-        <v>296</v>
-      </c>
-      <c r="C106" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="D106" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E106" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="65" t="s">
-        <v>349</v>
-      </c>
-      <c r="B107" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="C107" s="60" t="s">
-        <v>353</v>
-      </c>
-      <c r="D107" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E107" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="75" t="s">
-        <v>356</v>
-      </c>
-      <c r="B108" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="C108" s="60" t="s">
-        <v>352</v>
-      </c>
-      <c r="D108" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E108" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="66" t="s">
-        <v>356</v>
-      </c>
-      <c r="B109" s="66" t="s">
-        <v>296</v>
-      </c>
-      <c r="C109" s="60" t="s">
-        <v>351</v>
-      </c>
-      <c r="D109" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="E109" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="30">
-      <c r="A110" s="74" t="s">
-        <v>400</v>
-      </c>
-      <c r="B110" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="C110" s="60"/>
-      <c r="D110" s="61" t="s">
-        <v>392</v>
-      </c>
-      <c r="E110" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="30">
-      <c r="A111" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="B111" s="66" t="s">
-        <v>297</v>
-      </c>
-      <c r="C111" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="D111" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="E111" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30">
+      <c r="D111" s="70"/>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="65" t="s">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="B112" s="74" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C112" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="D112" s="61" t="s">
-        <v>380</v>
-      </c>
-      <c r="E112" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>361</v>
+      </c>
+      <c r="D112" s="70"/>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="66" t="s">
-        <v>332</v>
-      </c>
-      <c r="B113" s="67" t="s">
-        <v>297</v>
+        <v>367</v>
+      </c>
+      <c r="B113" s="66" t="s">
+        <v>292</v>
       </c>
       <c r="C113" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="D113" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="E113" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="74" t="s">
-        <v>335</v>
+      <c r="D113" s="70"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="63" t="s">
+        <v>356</v>
       </c>
       <c r="B114" s="63" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C114" s="60" t="s">
+        <v>353</v>
+      </c>
+      <c r="D114" s="60"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="B115" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="C115" s="60" t="s">
+        <v>354</v>
+      </c>
+      <c r="D115" s="60"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="B116" s="66" t="s">
+        <v>295</v>
+      </c>
+      <c r="C116" s="60" t="s">
+        <v>303</v>
+      </c>
+      <c r="D116" s="60"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="B117" s="74" t="s">
+        <v>295</v>
+      </c>
+      <c r="C117" s="60" t="s">
+        <v>304</v>
+      </c>
+      <c r="D117" s="60"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="66" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" s="67" t="s">
+        <v>296</v>
+      </c>
+      <c r="C118" s="60" t="s">
+        <v>307</v>
+      </c>
+      <c r="D118" s="70"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="B119" s="74" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="D119" s="78"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="B120" s="67" t="s">
+        <v>291</v>
+      </c>
+      <c r="C120" s="63" t="s">
+        <v>310</v>
+      </c>
+      <c r="D120" s="69"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="B121" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121" s="63" t="s">
+        <v>313</v>
+      </c>
+      <c r="D121" s="69"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="B122" s="76" t="s">
+        <v>291</v>
+      </c>
+      <c r="C122" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="D122" s="69"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="B123" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="C123" s="63" t="s">
+        <v>329</v>
+      </c>
+      <c r="D123" s="78"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="B124" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="C124" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="D124" s="78"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="B125" s="76" t="s">
+        <v>292</v>
+      </c>
+      <c r="C125" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="D114" s="70" t="s">
-        <v>381</v>
-      </c>
-      <c r="E114" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="65" t="s">
-        <v>400</v>
-      </c>
-      <c r="B115" s="71" t="s">
-        <v>391</v>
-      </c>
-      <c r="C115" s="60" t="s">
-        <v>389</v>
-      </c>
-      <c r="D115" s="61" t="s">
-        <v>390</v>
-      </c>
-      <c r="E115" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="B116" s="75" t="s">
-        <v>302</v>
-      </c>
-      <c r="C116" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="D116" s="70" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="B117" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="C117" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="D117" s="70" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="B118" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="C118" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="D118" s="70" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="66" t="s">
-        <v>335</v>
-      </c>
-      <c r="B119" s="66" t="s">
-        <v>302</v>
-      </c>
-      <c r="C119" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="D119" s="70" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="B120" s="74" t="s">
-        <v>302</v>
-      </c>
-      <c r="C120" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="D120" s="78" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="B121" s="67" t="s">
-        <v>301</v>
-      </c>
-      <c r="C121" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="D121" s="78" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="65" t="s">
-        <v>335</v>
-      </c>
-      <c r="B122" s="60" t="s">
-        <v>301</v>
-      </c>
-      <c r="C122" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="D122" s="78" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="B123" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="C123" s="86"/>
-      <c r="D123" s="86"/>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="B124" s="87" t="s">
-        <v>323</v>
-      </c>
-      <c r="C124" s="86"/>
-      <c r="D124" s="86"/>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="73" t="s">
-        <v>361</v>
-      </c>
-      <c r="B125" s="68" t="s">
-        <v>323</v>
-      </c>
-      <c r="C125" s="86"/>
-      <c r="D125" s="86"/>
-    </row>
-    <row r="126" spans="1:5" ht="30">
-      <c r="A126" s="65" t="s">
-        <v>400</v>
-      </c>
-      <c r="B126" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="C126" s="63" t="s">
-        <v>396</v>
-      </c>
-      <c r="D126" s="88" t="s">
-        <v>395</v>
-      </c>
-      <c r="E126" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="30">
-      <c r="A127" s="65" t="s">
-        <v>400</v>
-      </c>
-      <c r="B127" s="62" t="s">
-        <v>397</v>
+      <c r="D125" s="78"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="73" t="s">
+        <v>357</v>
+      </c>
+      <c r="B126" s="68" t="s">
+        <v>319</v>
+      </c>
+      <c r="C126" s="85"/>
+      <c r="D126" s="85"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="71" t="s">
+        <v>555</v>
+      </c>
+      <c r="B127" s="68" t="s">
+        <v>319</v>
       </c>
       <c r="C127" s="63"/>
-      <c r="D127" s="88" t="s">
-        <v>399</v>
-      </c>
-      <c r="E127" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="83" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="D127" s="63"/>
+    </row>
+    <row r="129" spans="1:4" s="9" customFormat="1">
+      <c r="A129" s="83" t="s">
+        <v>440</v>
+      </c>
+      <c r="B129" s="84"/>
+      <c r="C129" s="84"/>
+      <c r="D129"/>
+    </row>
+    <row r="130" spans="1:4" s="9" customFormat="1">
+      <c r="A130" s="84" t="s">
+        <v>514</v>
+      </c>
+      <c r="B130" s="84"/>
+      <c r="C130" s="84"/>
+      <c r="D130"/>
+    </row>
+    <row r="131" spans="1:4" s="9" customFormat="1">
       <c r="A131" s="84" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>515</v>
+      </c>
+      <c r="B131" s="84" t="s">
+        <v>526</v>
+      </c>
+      <c r="C131" s="84"/>
+    </row>
+    <row r="132" spans="1:4" s="9" customFormat="1">
       <c r="A132" s="84" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>516</v>
+      </c>
+      <c r="B132" s="84" t="s">
+        <v>529</v>
+      </c>
+      <c r="C132" s="84"/>
+    </row>
+    <row r="133" spans="1:4" s="9" customFormat="1">
       <c r="A133" s="84" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>441</v>
+      </c>
+      <c r="B133" s="84"/>
+      <c r="C133" s="84"/>
+    </row>
+    <row r="134" spans="1:4" s="9" customFormat="1">
       <c r="A134" s="84" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>517</v>
+      </c>
+      <c r="B134" s="84"/>
+      <c r="C134" s="84"/>
+    </row>
+    <row r="135" spans="1:4" s="9" customFormat="1">
       <c r="A135" s="84" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>442</v>
+      </c>
+      <c r="B135" s="84"/>
+      <c r="C135" s="84"/>
+    </row>
+    <row r="136" spans="1:4" s="9" customFormat="1">
       <c r="A136" s="84" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>443</v>
+      </c>
+      <c r="B136" s="84"/>
+      <c r="C136" s="84"/>
+    </row>
+    <row r="137" spans="1:4" s="9" customFormat="1">
       <c r="A137" s="84" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>444</v>
+      </c>
+      <c r="B137" s="84"/>
+      <c r="C137" s="84"/>
+    </row>
+    <row r="138" spans="1:4" s="9" customFormat="1">
       <c r="A138" s="84" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>445</v>
+      </c>
+      <c r="B138" s="84"/>
+      <c r="C138" s="84"/>
+    </row>
+    <row r="139" spans="1:4" s="9" customFormat="1">
       <c r="A139" s="84" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>446</v>
+      </c>
+      <c r="B139" s="84"/>
+      <c r="C139" s="84"/>
+    </row>
+    <row r="140" spans="1:4" s="9" customFormat="1">
       <c r="A140" s="84" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>518</v>
+      </c>
+      <c r="B140" s="84" t="s">
+        <v>554</v>
+      </c>
+      <c r="C140" s="84"/>
+    </row>
+    <row r="141" spans="1:4" s="9" customFormat="1">
       <c r="A141" s="84" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>519</v>
+      </c>
+      <c r="B141" s="84" t="s">
+        <v>530</v>
+      </c>
+      <c r="C141" s="84"/>
+    </row>
+    <row r="142" spans="1:4" s="9" customFormat="1">
       <c r="A142" s="84" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>520</v>
+      </c>
+      <c r="B142" s="84" t="s">
+        <v>525</v>
+      </c>
+      <c r="C142" s="84"/>
+    </row>
+    <row r="143" spans="1:4" s="9" customFormat="1">
       <c r="A143" s="84" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>521</v>
+      </c>
+      <c r="B143" s="84" t="s">
+        <v>527</v>
+      </c>
+      <c r="C143" s="84"/>
+    </row>
+    <row r="144" spans="1:4" s="9" customFormat="1">
       <c r="A144" s="84" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>447</v>
+      </c>
+      <c r="B144" s="84" t="s">
+        <v>548</v>
+      </c>
+      <c r="C144" s="84"/>
+    </row>
+    <row r="145" spans="1:3" s="9" customFormat="1">
       <c r="A145" s="84" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>522</v>
+      </c>
+      <c r="B145" s="84" t="s">
+        <v>528</v>
+      </c>
+      <c r="C145" s="84"/>
+    </row>
+    <row r="146" spans="1:3" s="9" customFormat="1">
       <c r="A146" s="84" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>523</v>
+      </c>
+      <c r="B146" s="84" t="s">
+        <v>531</v>
+      </c>
+      <c r="C146" s="84"/>
+    </row>
+    <row r="147" spans="1:3" s="9" customFormat="1">
       <c r="A147" s="84" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>524</v>
+      </c>
+      <c r="B147" s="84" t="s">
+        <v>527</v>
+      </c>
+      <c r="C147" s="84"/>
+    </row>
+    <row r="148" spans="1:3" s="9" customFormat="1">
       <c r="A148" s="84" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>448</v>
+      </c>
+      <c r="B148" s="84" t="s">
+        <v>530</v>
+      </c>
+      <c r="C148" s="84"/>
+    </row>
+    <row r="149" spans="1:3" s="9" customFormat="1">
       <c r="A149" s="84" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" s="84" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" s="84" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" s="84" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" s="84" t="s">
-        <v>486</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="B149" s="84" t="s">
+        <v>530</v>
+      </c>
+      <c r="C149" s="84"/>
+    </row>
+    <row r="150" spans="1:3" s="9" customFormat="1">
+      <c r="A150" s="84"/>
+      <c r="B150" s="84"/>
+      <c r="C150" s="84"/>
+    </row>
+    <row r="151" spans="1:3" s="9" customFormat="1">
+      <c r="A151" s="84"/>
+      <c r="B151" s="84"/>
+      <c r="C151" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12356,8 +12475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12371,110 +12490,100 @@
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="45">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="60">
       <c r="A1" s="20" t="s">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>515</v>
+        <v>470</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>516</v>
+        <v>471</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="82">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="150">
+      <c r="A2" s="82"/>
+      <c r="B2" s="82">
         <v>0</v>
       </c>
-      <c r="B2" s="82">
-        <v>1</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>459</v>
-      </c>
-      <c r="D2" s="89" t="s">
-        <v>504</v>
-      </c>
-      <c r="E2" s="90" t="s">
-        <v>435</v>
-      </c>
-      <c r="F2" t="s">
-        <v>523</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
+      <c r="C2" s="86" t="s">
+        <v>559</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2" s="87"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="82">
         <v>0</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="81">
+        <v>1</v>
+      </c>
+      <c r="C3" s="86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>473</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30">
+      <c r="A4" s="82">
+        <v>0</v>
+      </c>
+      <c r="B4" s="82">
         <v>2</v>
       </c>
-      <c r="C3" s="89" t="s">
-        <v>502</v>
-      </c>
-      <c r="D3" s="89" t="s">
-        <v>503</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>420</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="81">
-        <v>1</v>
-      </c>
-      <c r="B4" s="81">
+      <c r="C4" s="86" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>462</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" t="s">
+        <v>477</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="82">
+        <v>0</v>
+      </c>
+      <c r="B5" s="81">
         <v>3</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="F4" t="s">
-        <v>523</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="82">
-        <v>1</v>
-      </c>
-      <c r="B5" s="82">
-        <v>4</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>451</v>
-      </c>
-      <c r="D5" s="91" t="s">
-        <v>452</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>420</v>
+      <c r="C5" s="86" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>461</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>401</v>
       </c>
       <c r="G5" t="s">
         <v>21</v>
@@ -12484,17 +12593,20 @@
       <c r="A6" s="81">
         <v>1</v>
       </c>
-      <c r="B6" s="81">
-        <v>5</v>
-      </c>
-      <c r="C6" s="79" t="s">
-        <v>421</v>
-      </c>
-      <c r="D6" s="79" t="s">
-        <v>431</v>
-      </c>
-      <c r="E6" s="80" t="s">
-        <v>418</v>
+      <c r="B6" s="82">
+        <v>4</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="F6" t="s">
+        <v>477</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
@@ -12504,20 +12616,17 @@
       <c r="A7" s="82">
         <v>1</v>
       </c>
-      <c r="B7" s="82">
-        <v>6</v>
-      </c>
-      <c r="C7" s="79" t="s">
-        <v>455</v>
-      </c>
-      <c r="D7" s="79" t="s">
-        <v>422</v>
-      </c>
-      <c r="E7" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="F7" t="s">
-        <v>523</v>
+      <c r="B7" s="81">
+        <v>5</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="87" t="s">
+        <v>401</v>
       </c>
       <c r="G7" t="s">
         <v>21</v>
@@ -12527,40 +12636,40 @@
       <c r="A8" s="81">
         <v>1</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="82">
+        <v>6</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>402</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="82">
+        <v>1</v>
+      </c>
+      <c r="B9" s="81">
         <v>7</v>
       </c>
-      <c r="C8" s="79" t="s">
-        <v>423</v>
-      </c>
-      <c r="D8" s="79" t="s">
-        <v>422</v>
-      </c>
-      <c r="E8" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="F8" t="s">
-        <v>523</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="81">
-        <v>1</v>
-      </c>
-      <c r="B9" s="82">
-        <v>8</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>424</v>
+      <c r="C9" s="86" t="s">
+        <v>434</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>418</v>
+        <v>399</v>
+      </c>
+      <c r="F9" t="s">
+        <v>477</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -12570,17 +12679,20 @@
       <c r="A10" s="81">
         <v>1</v>
       </c>
-      <c r="B10" s="81">
-        <v>9</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>420</v>
+      <c r="B10" s="82">
+        <v>8</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>403</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="F10" t="s">
+        <v>477</v>
       </c>
       <c r="G10" t="s">
         <v>21</v>
@@ -12591,54 +12703,56 @@
         <v>1</v>
       </c>
       <c r="B11" s="81">
+        <v>9</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>405</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>403</v>
+      </c>
+      <c r="E11" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="81">
+        <v>1</v>
+      </c>
+      <c r="B12" s="82">
         <v>10</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30">
-      <c r="A12" s="82">
+      <c r="C12" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30">
+      <c r="A13" s="81">
         <v>1</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B13" s="81">
         <v>11</v>
       </c>
-      <c r="C12" s="89" t="s">
-        <v>500</v>
-      </c>
-      <c r="D12" s="89" t="s">
-        <v>501</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>418</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45">
-      <c r="A13" s="82">
-        <v>0</v>
-      </c>
-      <c r="B13" s="82">
-        <v>13</v>
-      </c>
-      <c r="C13" s="89" t="s">
-        <v>443</v>
-      </c>
-      <c r="D13" s="89" t="s">
-        <v>446</v>
-      </c>
-      <c r="E13" s="90" t="s">
-        <v>416</v>
+      <c r="C13" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>557</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>397</v>
       </c>
       <c r="G13" t="s">
         <v>21</v>
@@ -12646,37 +12760,39 @@
     </row>
     <row r="14" spans="1:7" ht="30">
       <c r="A14" s="82">
-        <v>0</v>
-      </c>
-      <c r="B14" s="81">
-        <v>14</v>
-      </c>
-      <c r="C14" s="79" t="s">
-        <v>449</v>
-      </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80" t="s">
-        <v>418</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="82">
+        <v>12</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>458</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>459</v>
+      </c>
+      <c r="E14" s="87" t="s">
+        <v>399</v>
       </c>
       <c r="G14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30">
+    <row r="15" spans="1:7" ht="45">
       <c r="A15" s="82">
         <v>0</v>
       </c>
-      <c r="B15" s="82">
-        <v>15</v>
-      </c>
-      <c r="C15" s="79" t="s">
-        <v>450</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>529</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>418</v>
+      <c r="B15" s="81">
+        <v>13</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>423</v>
+      </c>
+      <c r="D15" s="86" t="s">
+        <v>426</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>397</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
@@ -12686,135 +12802,133 @@
       <c r="A16" s="82">
         <v>0</v>
       </c>
-      <c r="B16" s="81">
-        <v>16</v>
-      </c>
-      <c r="C16" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90" t="s">
-        <v>416</v>
+      <c r="B16" s="82">
+        <v>14</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80" t="s">
+        <v>399</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="82">
         <v>0</v>
       </c>
-      <c r="B17" s="82">
-        <v>17</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>453</v>
+      <c r="B17" s="81">
+        <v>15</v>
+      </c>
+      <c r="C17" s="86" t="s">
+        <v>430</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>531</v>
+        <v>481</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="45">
+    <row r="18" spans="1:7" ht="30">
       <c r="A18" s="82">
         <v>0</v>
       </c>
       <c r="B18" s="82">
+        <v>16</v>
+      </c>
+      <c r="C18" s="86" t="s">
+        <v>482</v>
+      </c>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87" t="s">
+        <v>397</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="75">
+      <c r="A19" s="82">
+        <v>0</v>
+      </c>
+      <c r="B19" s="81">
+        <v>17</v>
+      </c>
+      <c r="C19" s="86" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="E19" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75">
+      <c r="A20" s="82">
+        <v>0</v>
+      </c>
+      <c r="B20" s="82">
         <v>18</v>
       </c>
-      <c r="C18" s="89" t="s">
-        <v>496</v>
-      </c>
-      <c r="D18" s="89" t="s">
-        <v>497</v>
-      </c>
-      <c r="E18" s="90" t="s">
-        <v>418</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="75">
-      <c r="A19" s="81">
+      <c r="C20" s="86" t="s">
+        <v>455</v>
+      </c>
+      <c r="D20" s="86" t="s">
+        <v>556</v>
+      </c>
+      <c r="E20" s="87" t="s">
+        <v>399</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="75">
+      <c r="A21" s="81">
         <v>2</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B21" s="81">
         <v>19</v>
       </c>
-      <c r="C19" s="89" t="s">
-        <v>433</v>
-      </c>
-      <c r="D19" s="89" t="s">
-        <v>434</v>
-      </c>
-      <c r="E19" s="90" t="s">
-        <v>435</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="45">
-      <c r="A20" s="81">
+      <c r="C21" s="86" t="s">
+        <v>414</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>415</v>
+      </c>
+      <c r="E21" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45">
+      <c r="A22" s="81">
         <v>2</v>
       </c>
-      <c r="B20" s="81">
+      <c r="B22" s="82">
         <v>20</v>
       </c>
-      <c r="C20" s="89" t="s">
-        <v>534</v>
-      </c>
-      <c r="D20" s="89" t="s">
-        <v>535</v>
-      </c>
-      <c r="E20" s="90" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30">
-      <c r="A21" s="82">
-        <v>2</v>
-      </c>
-      <c r="B21" s="82">
-        <v>21</v>
-      </c>
-      <c r="C21" s="89" t="s">
-        <v>456</v>
-      </c>
-      <c r="D21" s="89" t="s">
-        <v>457</v>
-      </c>
-      <c r="E21" s="90" t="s">
-        <v>420</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30">
-      <c r="A22" s="82">
-        <v>2</v>
-      </c>
-      <c r="B22" s="81">
-        <v>22</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>505</v>
-      </c>
-      <c r="D22" s="89" t="s">
-        <v>538</v>
-      </c>
-      <c r="E22" s="90" t="s">
-        <v>418</v>
+      <c r="C22" s="86" t="s">
+        <v>484</v>
+      </c>
+      <c r="D22" s="86" t="s">
+        <v>564</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>401</v>
       </c>
       <c r="G22" t="s">
         <v>21</v>
@@ -12824,15 +12938,17 @@
       <c r="A23" s="82">
         <v>2</v>
       </c>
-      <c r="B23" s="82">
-        <v>23</v>
-      </c>
-      <c r="C23" s="89" t="s">
-        <v>493</v>
-      </c>
-      <c r="D23" s="89"/>
-      <c r="E23" s="90" t="s">
-        <v>418</v>
+      <c r="B23" s="81">
+        <v>21</v>
+      </c>
+      <c r="C23" s="86" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>436</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>401</v>
       </c>
       <c r="G23" t="s">
         <v>21</v>
@@ -12842,37 +12958,35 @@
       <c r="A24" s="82">
         <v>2</v>
       </c>
-      <c r="B24" s="81">
-        <v>24</v>
-      </c>
-      <c r="C24" s="89" t="s">
-        <v>448</v>
-      </c>
-      <c r="D24" s="89" t="s">
-        <v>447</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>416</v>
+      <c r="B24" s="82">
+        <v>22</v>
+      </c>
+      <c r="C24" s="86" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" s="86"/>
+      <c r="E24" s="87" t="s">
+        <v>399</v>
       </c>
       <c r="G24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="81">
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="82">
         <v>2</v>
       </c>
       <c r="B25" s="81">
-        <v>25</v>
-      </c>
-      <c r="C25" s="79" t="s">
-        <v>441</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>442</v>
-      </c>
-      <c r="E25" s="80" t="s">
-        <v>418</v>
+        <v>23</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>428</v>
+      </c>
+      <c r="D25" s="86" t="s">
+        <v>427</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>397</v>
       </c>
       <c r="G25" t="s">
         <v>21</v>
@@ -12882,17 +12996,17 @@
       <c r="A26" s="81">
         <v>2</v>
       </c>
-      <c r="B26" s="81">
-        <v>26</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>439</v>
+      <c r="B26" s="82">
+        <v>24</v>
+      </c>
+      <c r="C26" s="86" t="s">
+        <v>422</v>
       </c>
       <c r="D26" s="79" t="s">
-        <v>440</v>
+        <v>565</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G26" t="s">
         <v>21</v>
@@ -12903,14 +13017,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="81">
-        <v>27</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>438</v>
-      </c>
-      <c r="D27" s="79"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>420</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>421</v>
+      </c>
       <c r="E27" s="80" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
@@ -12920,37 +13036,35 @@
       <c r="A28" s="81">
         <v>2</v>
       </c>
-      <c r="B28" s="81">
-        <v>28</v>
-      </c>
-      <c r="C28" s="79" t="s">
-        <v>430</v>
-      </c>
-      <c r="D28" s="79" t="s">
-        <v>422</v>
-      </c>
+      <c r="B28" s="82">
+        <v>26</v>
+      </c>
+      <c r="C28" s="86" t="s">
+        <v>419</v>
+      </c>
+      <c r="D28" s="79"/>
       <c r="E28" s="80" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="30">
       <c r="A29" s="81">
         <v>2</v>
       </c>
       <c r="B29" s="81">
-        <v>29</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>429</v>
+        <v>27</v>
+      </c>
+      <c r="C29" s="86" t="s">
+        <v>411</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E29" s="80" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G29" t="s">
         <v>21</v>
@@ -12960,57 +13074,57 @@
       <c r="A30" s="81">
         <v>2</v>
       </c>
-      <c r="B30" s="81">
-        <v>30</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>428</v>
+      <c r="B30" s="82">
+        <v>28</v>
+      </c>
+      <c r="C30" s="86" t="s">
+        <v>410</v>
       </c>
       <c r="D30" s="79" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="75">
+    <row r="31" spans="1:7">
       <c r="A31" s="81">
         <v>2</v>
       </c>
       <c r="B31" s="81">
-        <v>31</v>
-      </c>
-      <c r="C31" s="79" t="s">
-        <v>444</v>
+        <v>29</v>
+      </c>
+      <c r="C31" s="86" t="s">
+        <v>409</v>
       </c>
       <c r="D31" s="79" t="s">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="E31" s="80" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="90">
       <c r="A32" s="81">
         <v>2</v>
       </c>
-      <c r="B32" s="81">
-        <v>32</v>
-      </c>
-      <c r="C32" s="79" t="s">
-        <v>427</v>
+      <c r="B32" s="82">
+        <v>30</v>
+      </c>
+      <c r="C32" s="86" t="s">
+        <v>424</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>431</v>
+        <v>512</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G32" t="s">
         <v>21</v>
@@ -13021,212 +13135,203 @@
         <v>2</v>
       </c>
       <c r="B33" s="81">
-        <v>33</v>
-      </c>
-      <c r="C33" s="79" t="s">
-        <v>426</v>
+        <v>31</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>408</v>
       </c>
       <c r="D33" s="79" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G33" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30">
+    <row r="34" spans="1:7">
       <c r="A34" s="81">
         <v>2</v>
       </c>
-      <c r="B34" s="81">
-        <v>34</v>
-      </c>
-      <c r="C34" s="79" t="s">
-        <v>425</v>
+      <c r="B34" s="82">
+        <v>32</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>407</v>
       </c>
       <c r="D34" s="79" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="G34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="45">
+    <row r="35" spans="1:7" ht="30">
       <c r="A35" s="81">
         <v>2</v>
       </c>
       <c r="B35" s="81">
-        <v>35</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="E35" t="s">
-        <v>418</v>
+        <v>33</v>
+      </c>
+      <c r="C35" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="E35" s="80" t="s">
+        <v>399</v>
       </c>
       <c r="G35" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="45">
       <c r="A36" s="81">
         <v>2</v>
       </c>
-      <c r="B36" s="81">
+      <c r="B36" s="82">
+        <v>34</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E36" t="s">
+        <v>399</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="81">
+        <v>2</v>
+      </c>
+      <c r="B37" s="81">
+        <v>35</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="E37" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30">
+      <c r="A38" s="82">
+        <v>1</v>
+      </c>
+      <c r="B38" s="82">
         <v>36</v>
       </c>
-      <c r="C36" s="79" t="s">
-        <v>436</v>
-      </c>
-      <c r="D36" s="79" t="s">
-        <v>437</v>
-      </c>
-      <c r="E36" s="80" t="s">
-        <v>418</v>
-      </c>
-      <c r="G36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="82">
-        <v>0</v>
-      </c>
-      <c r="C37" s="79" t="s">
-        <v>517</v>
-      </c>
-      <c r="D37" s="79"/>
-      <c r="E37" s="80"/>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="82">
-        <v>0</v>
-      </c>
-      <c r="C38" s="79" t="s">
-        <v>520</v>
-      </c>
-      <c r="D38" s="79"/>
-      <c r="E38" s="80"/>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="C38" s="86" t="s">
+        <v>478</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>479</v>
+      </c>
+      <c r="E38" s="80" t="s">
+        <v>475</v>
+      </c>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="82">
         <v>0</v>
       </c>
-      <c r="C39" s="79" t="s">
-        <v>18</v>
+      <c r="B39" s="81">
+        <v>37</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>489</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="E39" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30">
+        <v>399</v>
+      </c>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="82">
         <v>0</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="D40" s="79" t="s">
-        <v>518</v>
-      </c>
+      <c r="C40" s="86" t="s">
+        <v>566</v>
+      </c>
+      <c r="D40" s="79"/>
       <c r="E40" s="80"/>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="30">
-      <c r="A41" s="81">
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="82">
         <v>0</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>543</v>
-      </c>
-      <c r="E41" t="s">
-        <v>521</v>
-      </c>
-      <c r="G41" t="s">
-        <v>21</v>
-      </c>
+      <c r="C41" s="86" t="s">
+        <v>474</v>
+      </c>
+      <c r="D41" s="79"/>
+      <c r="E41" s="80"/>
     </row>
     <row r="42" spans="1:7" ht="30">
       <c r="A42" s="82">
-        <v>1</v>
-      </c>
-      <c r="B42" s="82">
-        <v>37</v>
-      </c>
-      <c r="C42" s="79" t="s">
-        <v>525</v>
+        <v>0</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>380</v>
       </c>
       <c r="D42" s="79" t="s">
-        <v>526</v>
-      </c>
-      <c r="E42" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="82">
+        <v>472</v>
+      </c>
+      <c r="E42" s="80"/>
+    </row>
+    <row r="43" spans="1:7" ht="30">
+      <c r="A43" s="81">
         <v>0</v>
       </c>
-      <c r="B43" s="82"/>
-      <c r="C43" s="79" t="s">
-        <v>540</v>
-      </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="80" t="s">
-        <v>521</v>
-      </c>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="30">
+      <c r="C43" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="E43" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="82">
         <v>0</v>
       </c>
       <c r="B44" s="82"/>
-      <c r="C44" s="79" t="s">
-        <v>541</v>
-      </c>
-      <c r="D44" s="79" t="s">
-        <v>542</v>
-      </c>
+      <c r="C44" s="86" t="s">
+        <v>488</v>
+      </c>
+      <c r="D44" s="79"/>
       <c r="E44" s="80" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="F44" s="80"/>
-      <c r="G44" s="80" t="s">
-        <v>21</v>
-      </c>
+      <c r="G44" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
